--- a/BackTest/2020-01-14 BackTest ETC.xlsx
+++ b/BackTest/2020-01-14 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M258"/>
+  <dimension ref="A1:N268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>530.4989</v>
       </c>
       <c r="G2" t="n">
+        <v>6198.666666666667</v>
+      </c>
+      <c r="H2" t="n">
         <v>6159</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>248.2764</v>
       </c>
       <c r="G3" t="n">
+        <v>6203.666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>6160.583333333333</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
+        <v>6208.666666666667</v>
+      </c>
+      <c r="H4" t="n">
         <v>6162.166666666667</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>48</v>
       </c>
       <c r="G5" t="n">
+        <v>6213</v>
+      </c>
+      <c r="H5" t="n">
         <v>6163.333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>5.873</v>
       </c>
       <c r="G6" t="n">
+        <v>6217.333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>6164.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>154.4</v>
       </c>
       <c r="G7" t="n">
+        <v>6222</v>
+      </c>
+      <c r="H7" t="n">
         <v>6165.833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>98.2</v>
       </c>
       <c r="G8" t="n">
+        <v>6226.333333333333</v>
+      </c>
+      <c r="H8" t="n">
         <v>6167.083333333333</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>47.8698</v>
       </c>
       <c r="G9" t="n">
+        <v>6229.333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>6168.333333333333</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>5.1537</v>
       </c>
       <c r="G10" t="n">
+        <v>6233</v>
+      </c>
+      <c r="H10" t="n">
         <v>6170.166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>107.5</v>
       </c>
       <c r="G11" t="n">
+        <v>6236.666666666667</v>
+      </c>
+      <c r="H11" t="n">
         <v>6172.416666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>22.9853</v>
       </c>
       <c r="G12" t="n">
+        <v>6240.666666666667</v>
+      </c>
+      <c r="H12" t="n">
         <v>6174.75</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>15.8198</v>
       </c>
       <c r="G13" t="n">
+        <v>6244.666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>6177.083333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>10.6041</v>
       </c>
       <c r="G14" t="n">
+        <v>6246.666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>6178.833333333333</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>53.7841</v>
       </c>
       <c r="G15" t="n">
+        <v>6251</v>
+      </c>
+      <c r="H15" t="n">
         <v>6181.166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>20.0669</v>
       </c>
       <c r="G16" t="n">
+        <v>6253</v>
+      </c>
+      <c r="H16" t="n">
         <v>6183.583333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>1</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>153.8201</v>
       </c>
       <c r="G17" t="n">
+        <v>6253.666666666667</v>
+      </c>
+      <c r="H17" t="n">
         <v>6185.666666666667</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>1</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>147.9569</v>
       </c>
       <c r="G18" t="n">
+        <v>6255.666666666667</v>
+      </c>
+      <c r="H18" t="n">
         <v>6188.583333333333</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>3.7</v>
       </c>
       <c r="G19" t="n">
+        <v>6258.333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>6191.25</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>1</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>6.3</v>
       </c>
       <c r="G20" t="n">
+        <v>6261</v>
+      </c>
+      <c r="H20" t="n">
         <v>6193.583333333333</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>106.3</v>
       </c>
       <c r="G21" t="n">
+        <v>6264</v>
+      </c>
+      <c r="H21" t="n">
         <v>6196.166666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>20</v>
       </c>
       <c r="G22" t="n">
+        <v>6264.333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>6197.833333333333</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>202.12</v>
       </c>
       <c r="G23" t="n">
+        <v>6264.666666666667</v>
+      </c>
+      <c r="H23" t="n">
         <v>6200.083333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>1</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>87.3663</v>
       </c>
       <c r="G24" t="n">
+        <v>6265.666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>6202.583333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>1</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>1136.7446</v>
       </c>
       <c r="G25" t="n">
+        <v>6262.666666666667</v>
+      </c>
+      <c r="H25" t="n">
         <v>6204.166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>1</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>13.9777</v>
       </c>
       <c r="G26" t="n">
+        <v>6259</v>
+      </c>
+      <c r="H26" t="n">
         <v>6205.583333333333</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>1</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>46.82</v>
       </c>
       <c r="G27" t="n">
+        <v>6255</v>
+      </c>
+      <c r="H27" t="n">
         <v>6207.083333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>1</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>204.5</v>
       </c>
       <c r="G28" t="n">
+        <v>6251</v>
+      </c>
+      <c r="H28" t="n">
         <v>6208.5</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>1</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>10.0106</v>
       </c>
       <c r="G29" t="n">
+        <v>6248</v>
+      </c>
+      <c r="H29" t="n">
         <v>6209.833333333333</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>275.1</v>
       </c>
       <c r="G30" t="n">
+        <v>6243.666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>6211</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>126.2</v>
       </c>
       <c r="G31" t="n">
+        <v>6239</v>
+      </c>
+      <c r="H31" t="n">
         <v>6211.666666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>253.0163</v>
       </c>
       <c r="G32" t="n">
+        <v>6234.333333333333</v>
+      </c>
+      <c r="H32" t="n">
         <v>6212.333333333333</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>21.6374</v>
       </c>
       <c r="G33" t="n">
+        <v>6228.333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>6212.916666666667</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>222.4046</v>
       </c>
       <c r="G34" t="n">
+        <v>6223</v>
+      </c>
+      <c r="H34" t="n">
         <v>6213.833333333333</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>3.1414</v>
       </c>
       <c r="G35" t="n">
+        <v>6217.666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>6214.416666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>2.8273</v>
       </c>
       <c r="G36" t="n">
+        <v>6212</v>
+      </c>
+      <c r="H36" t="n">
         <v>6214.833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>38.328</v>
       </c>
       <c r="G37" t="n">
+        <v>6209.333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>6215.75</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>42.8988</v>
       </c>
       <c r="G38" t="n">
+        <v>6206.333333333333</v>
+      </c>
+      <c r="H38" t="n">
         <v>6216.5</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>4.8347</v>
       </c>
       <c r="G39" t="n">
+        <v>6203</v>
+      </c>
+      <c r="H39" t="n">
         <v>6217.5</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>4.6375</v>
       </c>
       <c r="G40" t="n">
+        <v>6202.333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>6218.166666666667</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>2.0611</v>
       </c>
       <c r="G41" t="n">
+        <v>6202.666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>6219</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>191.3211</v>
       </c>
       <c r="G42" t="n">
+        <v>6203</v>
+      </c>
+      <c r="H42" t="n">
         <v>6220</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>0.5738</v>
       </c>
       <c r="G43" t="n">
+        <v>6203.666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>6221</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>0.3893890675241157</v>
       </c>
       <c r="G44" t="n">
+        <v>6204.666666666667</v>
+      </c>
+      <c r="H44" t="n">
         <v>6221.916666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>8.364599999999999</v>
       </c>
       <c r="G45" t="n">
+        <v>6204.666666666667</v>
+      </c>
+      <c r="H45" t="n">
         <v>6222.583333333333</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>309.302</v>
       </c>
       <c r="G46" t="n">
+        <v>6206</v>
+      </c>
+      <c r="H46" t="n">
         <v>6223.083333333333</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>4.9559</v>
       </c>
       <c r="G47" t="n">
+        <v>6207.333333333333</v>
+      </c>
+      <c r="H47" t="n">
         <v>6223.5</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>403.9138</v>
       </c>
       <c r="G48" t="n">
+        <v>6208.333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>6224</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>183.85</v>
       </c>
       <c r="G49" t="n">
+        <v>6207</v>
+      </c>
+      <c r="H49" t="n">
         <v>6224.25</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>44.9299</v>
       </c>
       <c r="G50" t="n">
+        <v>6207.333333333333</v>
+      </c>
+      <c r="H50" t="n">
         <v>6224.75</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>22.6928</v>
       </c>
       <c r="G51" t="n">
+        <v>6207.333333333333</v>
+      </c>
+      <c r="H51" t="n">
         <v>6225.166666666667</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>220.5447</v>
       </c>
       <c r="G52" t="n">
+        <v>6206.666666666667</v>
+      </c>
+      <c r="H52" t="n">
         <v>6225.583333333333</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>28.7561</v>
       </c>
       <c r="G53" t="n">
+        <v>6207</v>
+      </c>
+      <c r="H53" t="n">
         <v>6226.083333333333</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>117.4951</v>
       </c>
       <c r="G54" t="n">
+        <v>6207.333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>6226.333333333333</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>0.5</v>
       </c>
       <c r="G55" t="n">
+        <v>6207.666666666667</v>
+      </c>
+      <c r="H55" t="n">
         <v>6226.416666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>61.6532</v>
       </c>
       <c r="G56" t="n">
+        <v>6208</v>
+      </c>
+      <c r="H56" t="n">
         <v>6226.583333333333</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>9.7265</v>
       </c>
       <c r="G57" t="n">
+        <v>6208.666666666667</v>
+      </c>
+      <c r="H57" t="n">
         <v>6226.833333333333</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>80</v>
       </c>
       <c r="G58" t="n">
+        <v>6208.666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>6227</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2</v>
       </c>
       <c r="G59" t="n">
+        <v>6208.666666666667</v>
+      </c>
+      <c r="H59" t="n">
         <v>6227</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>4.1588</v>
       </c>
       <c r="G60" t="n">
+        <v>6210</v>
+      </c>
+      <c r="H60" t="n">
         <v>6227.333333333333</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>50</v>
       </c>
       <c r="G61" t="n">
+        <v>6210.666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>6227.166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>420.7769</v>
       </c>
       <c r="G62" t="n">
+        <v>6212</v>
+      </c>
+      <c r="H62" t="n">
         <v>6226.833333333333</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>58.3446</v>
       </c>
       <c r="G63" t="n">
+        <v>6213</v>
+      </c>
+      <c r="H63" t="n">
         <v>6226.333333333333</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>26.5963</v>
       </c>
       <c r="G64" t="n">
+        <v>6213.666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>6225.5</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>7.0069</v>
       </c>
       <c r="G65" t="n">
+        <v>6213.333333333333</v>
+      </c>
+      <c r="H65" t="n">
         <v>6224.833333333333</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>99.12820000000001</v>
       </c>
       <c r="G66" t="n">
+        <v>6213.333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>6224.166666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>59.0527</v>
       </c>
       <c r="G67" t="n">
+        <v>6213</v>
+      </c>
+      <c r="H67" t="n">
         <v>6223.333333333333</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>0.5</v>
       </c>
       <c r="G68" t="n">
+        <v>6211.666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>6222.416666666667</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>24.0249</v>
       </c>
       <c r="G69" t="n">
+        <v>6208</v>
+      </c>
+      <c r="H69" t="n">
         <v>6221</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>9.3363</v>
       </c>
       <c r="G70" t="n">
+        <v>6205</v>
+      </c>
+      <c r="H70" t="n">
         <v>6219.416666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>8.329800000000001</v>
       </c>
       <c r="G71" t="n">
+        <v>6201</v>
+      </c>
+      <c r="H71" t="n">
         <v>6217.666666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>6.2276</v>
       </c>
       <c r="G72" t="n">
+        <v>6197.333333333333</v>
+      </c>
+      <c r="H72" t="n">
         <v>6216</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>100</v>
       </c>
       <c r="G73" t="n">
+        <v>6194.333333333333</v>
+      </c>
+      <c r="H73" t="n">
         <v>6214.416666666667</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>11.5165</v>
       </c>
       <c r="G74" t="n">
+        <v>6191.333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>6213.166666666667</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>2.0524</v>
       </c>
       <c r="G75" t="n">
+        <v>6188</v>
+      </c>
+      <c r="H75" t="n">
         <v>6211.583333333333</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>4266.2232</v>
       </c>
       <c r="G76" t="n">
+        <v>6184.666666666667</v>
+      </c>
+      <c r="H76" t="n">
         <v>6210.083333333333</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>958.298</v>
       </c>
       <c r="G77" t="n">
+        <v>6180.333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>6208.5</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>66.0605012987013</v>
       </c>
       <c r="G78" t="n">
+        <v>6176.333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>6206.5</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>272.8252</v>
       </c>
       <c r="G79" t="n">
+        <v>6173.666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>6204.333333333333</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>816.1673</v>
       </c>
       <c r="G80" t="n">
+        <v>6170.666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>6202.25</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>165.7057</v>
       </c>
       <c r="G81" t="n">
+        <v>6167.666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>6200.083333333333</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>66.5365</v>
       </c>
       <c r="G82" t="n">
+        <v>6165.333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>6198.583333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>35.5372</v>
       </c>
       <c r="G83" t="n">
+        <v>6163</v>
+      </c>
+      <c r="H83" t="n">
         <v>6197</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>105.2966</v>
       </c>
       <c r="G84" t="n">
+        <v>6162.333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>6195.166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>7.6182</v>
       </c>
       <c r="G85" t="n">
+        <v>6161.666666666667</v>
+      </c>
+      <c r="H85" t="n">
         <v>6194.166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>100</v>
       </c>
       <c r="G86" t="n">
+        <v>6161.666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>6193.333333333333</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>28.131</v>
       </c>
       <c r="G87" t="n">
+        <v>6161</v>
+      </c>
+      <c r="H87" t="n">
         <v>6192.5</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>133.0125</v>
       </c>
       <c r="G88" t="n">
+        <v>6159.666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>6191.583333333333</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>2155.1</v>
       </c>
       <c r="G89" t="n">
+        <v>6157.333333333333</v>
+      </c>
+      <c r="H89" t="n">
         <v>6190.5</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>3121.1202</v>
       </c>
       <c r="G90" t="n">
+        <v>6152.666666666667</v>
+      </c>
+      <c r="H90" t="n">
         <v>6188.833333333333</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>1252.8524</v>
       </c>
       <c r="G91" t="n">
+        <v>6148.666666666667</v>
+      </c>
+      <c r="H91" t="n">
         <v>6187.5</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>10013.0436</v>
       </c>
       <c r="G92" t="n">
+        <v>6144.333333333333</v>
+      </c>
+      <c r="H92" t="n">
         <v>6186</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>4513.0777</v>
       </c>
       <c r="G93" t="n">
+        <v>6141.666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>6184.833333333333</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>501.404</v>
       </c>
       <c r="G94" t="n">
+        <v>6139.333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>6183.416666666667</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>408.6161</v>
       </c>
       <c r="G95" t="n">
+        <v>6137</v>
+      </c>
+      <c r="H95" t="n">
         <v>6182.083333333333</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>152.1439</v>
       </c>
       <c r="G96" t="n">
+        <v>6135.333333333333</v>
+      </c>
+      <c r="H96" t="n">
         <v>6180.916666666667</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>144.45</v>
       </c>
       <c r="G97" t="n">
+        <v>6133</v>
+      </c>
+      <c r="H97" t="n">
         <v>6179.5</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>0.6</v>
       </c>
       <c r="G98" t="n">
+        <v>6132</v>
+      </c>
+      <c r="H98" t="n">
         <v>6178.416666666667</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>1146.6825</v>
       </c>
       <c r="G99" t="n">
+        <v>6132</v>
+      </c>
+      <c r="H99" t="n">
         <v>6177.416666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>507.368</v>
       </c>
       <c r="G100" t="n">
+        <v>6130</v>
+      </c>
+      <c r="H100" t="n">
         <v>6176.083333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>657.3864</v>
       </c>
       <c r="G101" t="n">
+        <v>6125</v>
+      </c>
+      <c r="H101" t="n">
         <v>6173.916666666667</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>119.1387</v>
       </c>
       <c r="G102" t="n">
+        <v>6121.666666666667</v>
+      </c>
+      <c r="H102" t="n">
         <v>6172.166666666667</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>80.19410000000001</v>
       </c>
       <c r="G103" t="n">
+        <v>6119.333333333333</v>
+      </c>
+      <c r="H103" t="n">
         <v>6170.5</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,25 @@
         <v>15</v>
       </c>
       <c r="G104" t="n">
+        <v>6116.666666666667</v>
+      </c>
+      <c r="H104" t="n">
         <v>6168.5</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>6120</v>
+      </c>
+      <c r="L104" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4371,29 @@
         <v>0.5738</v>
       </c>
       <c r="G105" t="n">
+        <v>6115.333333333333</v>
+      </c>
+      <c r="H105" t="n">
         <v>6166.5</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>6100</v>
+      </c>
+      <c r="L105" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4417,29 @@
         <v>317.2755</v>
       </c>
       <c r="G106" t="n">
+        <v>6114.666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>6164.666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>6080</v>
+      </c>
+      <c r="L106" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4463,27 @@
         <v>170.8352</v>
       </c>
       <c r="G107" t="n">
+        <v>6115</v>
+      </c>
+      <c r="H107" t="n">
         <v>6162.916666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4507,29 @@
         <v>78.41500000000001</v>
       </c>
       <c r="G108" t="n">
+        <v>6113.333333333333</v>
+      </c>
+      <c r="H108" t="n">
         <v>6161.083333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>6095</v>
+      </c>
+      <c r="L108" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4553,29 @@
         <v>291.9587</v>
       </c>
       <c r="G109" t="n">
+        <v>6112.666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>6159.833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>6095</v>
+      </c>
+      <c r="L109" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4599,27 @@
         <v>194.6947</v>
       </c>
       <c r="G110" t="n">
+        <v>6112</v>
+      </c>
+      <c r="H110" t="n">
         <v>6158.25</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4643,27 @@
         <v>17.3917</v>
       </c>
       <c r="G111" t="n">
+        <v>6110.666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>6156.75</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4687,27 @@
         <v>136.45</v>
       </c>
       <c r="G112" t="n">
+        <v>6110.333333333333</v>
+      </c>
+      <c r="H112" t="n">
         <v>6155.416666666667</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4731,27 @@
         <v>38.4164</v>
       </c>
       <c r="G113" t="n">
+        <v>6109.666666666667</v>
+      </c>
+      <c r="H113" t="n">
         <v>6154.083333333333</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="L113" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4775,27 @@
         <v>102.5433</v>
       </c>
       <c r="G114" t="n">
+        <v>6109</v>
+      </c>
+      <c r="H114" t="n">
         <v>6152.833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="L114" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4819,27 @@
         <v>17.8029</v>
       </c>
       <c r="G115" t="n">
+        <v>6109.666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>6151.583333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="L115" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4863,27 @@
         <v>144</v>
       </c>
       <c r="G116" t="n">
+        <v>6113.333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>6150.25</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="L116" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4907,27 @@
         <v>100</v>
       </c>
       <c r="G117" t="n">
+        <v>6114.666666666667</v>
+      </c>
+      <c r="H117" t="n">
         <v>6148.666666666667</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="L117" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4951,27 @@
         <v>391.22</v>
       </c>
       <c r="G118" t="n">
+        <v>6116.333333333333</v>
+      </c>
+      <c r="H118" t="n">
         <v>6147.416666666667</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="L118" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4995,27 @@
         <v>89.9181</v>
       </c>
       <c r="G119" t="n">
+        <v>6119.666666666667</v>
+      </c>
+      <c r="H119" t="n">
         <v>6146.25</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="L119" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +5039,27 @@
         <v>11.1007</v>
       </c>
       <c r="G120" t="n">
+        <v>6124</v>
+      </c>
+      <c r="H120" t="n">
         <v>6145</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="L120" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +5083,27 @@
         <v>78.9885</v>
       </c>
       <c r="G121" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H121" t="n">
         <v>6143.75</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="L121" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5127,27 @@
         <v>25</v>
       </c>
       <c r="G122" t="n">
+        <v>6129.333333333333</v>
+      </c>
+      <c r="H122" t="n">
         <v>6142.25</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="L122" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5171,27 @@
         <v>95.9118</v>
       </c>
       <c r="G123" t="n">
+        <v>6132.333333333333</v>
+      </c>
+      <c r="H123" t="n">
         <v>6140.916666666667</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="L123" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5215,27 @@
         <v>46.5674</v>
       </c>
       <c r="G124" t="n">
+        <v>6134</v>
+      </c>
+      <c r="H124" t="n">
         <v>6139.916666666667</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="L124" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5259,27 @@
         <v>16</v>
       </c>
       <c r="G125" t="n">
+        <v>6136</v>
+      </c>
+      <c r="H125" t="n">
         <v>6138.916666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="L125" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5303,27 @@
         <v>0.1</v>
       </c>
       <c r="G126" t="n">
+        <v>6137.333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>6137.75</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="L126" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5347,27 @@
         <v>12.6113</v>
       </c>
       <c r="G127" t="n">
+        <v>6139.333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>6137</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="L127" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5391,27 @@
         <v>131.3887</v>
       </c>
       <c r="G128" t="n">
+        <v>6140.333333333333</v>
+      </c>
+      <c r="H128" t="n">
         <v>6136.25</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="L128" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5435,27 @@
         <v>27.9414</v>
       </c>
       <c r="G129" t="n">
+        <v>6141.333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>6136.166666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="L129" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5479,27 @@
         <v>25</v>
       </c>
       <c r="G130" t="n">
+        <v>6142</v>
+      </c>
+      <c r="H130" t="n">
         <v>6135.833333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="L130" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5523,27 @@
         <v>5.3232</v>
       </c>
       <c r="G131" t="n">
+        <v>6142.333333333333</v>
+      </c>
+      <c r="H131" t="n">
         <v>6135.583333333333</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="L131" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5567,27 @@
         <v>9.7629</v>
       </c>
       <c r="G132" t="n">
+        <v>6143.666666666667</v>
+      </c>
+      <c r="H132" t="n">
         <v>6135.25</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="L132" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5611,27 @@
         <v>19.224</v>
       </c>
       <c r="G133" t="n">
+        <v>6144</v>
+      </c>
+      <c r="H133" t="n">
         <v>6134.833333333333</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="L133" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5655,27 @@
         <v>19.2721</v>
       </c>
       <c r="G134" t="n">
+        <v>6144</v>
+      </c>
+      <c r="H134" t="n">
         <v>6134.416666666667</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="L134" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5699,27 @@
         <v>366.3725</v>
       </c>
       <c r="G135" t="n">
+        <v>6143.333333333333</v>
+      </c>
+      <c r="H135" t="n">
         <v>6133.833333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="L135" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5743,27 @@
         <v>109.3818</v>
       </c>
       <c r="G136" t="n">
+        <v>6143.333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>6133.416666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="L136" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5787,27 @@
         <v>36.4813</v>
       </c>
       <c r="G137" t="n">
+        <v>6144.333333333333</v>
+      </c>
+      <c r="H137" t="n">
         <v>6133.25</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="L137" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5831,27 @@
         <v>144</v>
       </c>
       <c r="G138" t="n">
+        <v>6143.666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>6132.75</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="L138" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5875,27 @@
         <v>1.3</v>
       </c>
       <c r="G139" t="n">
+        <v>6143</v>
+      </c>
+      <c r="H139" t="n">
         <v>6132.25</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="L139" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5919,27 @@
         <v>325.81</v>
       </c>
       <c r="G140" t="n">
+        <v>6142.333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>6131.833333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="L140" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5963,27 @@
         <v>10.6691</v>
       </c>
       <c r="G141" t="n">
+        <v>6142.333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>6131.416666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="L141" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,18 +6007,27 @@
         <v>57.3161</v>
       </c>
       <c r="G142" t="n">
+        <v>6141</v>
+      </c>
+      <c r="H142" t="n">
         <v>6130.916666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="L142" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5383,18 +6051,27 @@
         <v>7.5722</v>
       </c>
       <c r="G143" t="n">
+        <v>6139.666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>6130.416666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="L143" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5418,18 +6095,27 @@
         <v>144</v>
       </c>
       <c r="G144" t="n">
+        <v>6137.333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>6129.916666666667</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="L144" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5453,18 +6139,27 @@
         <v>295.3659</v>
       </c>
       <c r="G145" t="n">
+        <v>6134.333333333333</v>
+      </c>
+      <c r="H145" t="n">
         <v>6129</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="L145" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5488,18 +6183,27 @@
         <v>347.9939</v>
       </c>
       <c r="G146" t="n">
+        <v>6132.333333333333</v>
+      </c>
+      <c r="H146" t="n">
         <v>6128.25</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="L146" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5523,18 +6227,27 @@
         <v>517.1668</v>
       </c>
       <c r="G147" t="n">
+        <v>6128.666666666667</v>
+      </c>
+      <c r="H147" t="n">
         <v>6127.166666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="L147" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5558,18 +6271,29 @@
         <v>105.4</v>
       </c>
       <c r="G148" t="n">
+        <v>6125.666666666667</v>
+      </c>
+      <c r="H148" t="n">
         <v>6126.333333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>6095</v>
+      </c>
+      <c r="L148" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5593,18 +6317,29 @@
         <v>64.4819</v>
       </c>
       <c r="G149" t="n">
+        <v>6123</v>
+      </c>
+      <c r="H149" t="n">
         <v>6125.833333333333</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>6105</v>
+      </c>
+      <c r="L149" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,18 +6363,29 @@
         <v>25</v>
       </c>
       <c r="G150" t="n">
+        <v>6120.666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>6125.833333333333</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>6110</v>
+      </c>
+      <c r="L150" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5663,18 +6409,29 @@
         <v>163.8001638001638</v>
       </c>
       <c r="G151" t="n">
+        <v>6118.666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>6125.916666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>6100</v>
+      </c>
+      <c r="L151" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5698,18 +6455,29 @@
         <v>144</v>
       </c>
       <c r="G152" t="n">
+        <v>6116.666666666667</v>
+      </c>
+      <c r="H152" t="n">
         <v>6126.333333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>6105</v>
+      </c>
+      <c r="L152" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5733,18 +6501,27 @@
         <v>50</v>
       </c>
       <c r="G153" t="n">
+        <v>6115.666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>6126.25</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="L153" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5768,18 +6545,29 @@
         <v>461.8474</v>
       </c>
       <c r="G154" t="n">
+        <v>6116</v>
+      </c>
+      <c r="H154" t="n">
         <v>6126.416666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>6115</v>
+      </c>
+      <c r="L154" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,18 +6591,27 @@
         <v>16.059</v>
       </c>
       <c r="G155" t="n">
+        <v>6117</v>
+      </c>
+      <c r="H155" t="n">
         <v>6126.833333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="L155" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5838,18 +6635,27 @@
         <v>3.033</v>
       </c>
       <c r="G156" t="n">
+        <v>6116</v>
+      </c>
+      <c r="H156" t="n">
         <v>6126.583333333333</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="L156" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5873,18 +6679,27 @@
         <v>0.6</v>
       </c>
       <c r="G157" t="n">
+        <v>6117.333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>6127</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="L157" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5908,18 +6723,27 @@
         <v>0.1495</v>
       </c>
       <c r="G158" t="n">
+        <v>6117.333333333333</v>
+      </c>
+      <c r="H158" t="n">
         <v>6126.75</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="L158" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5943,18 +6767,27 @@
         <v>0.607</v>
       </c>
       <c r="G159" t="n">
+        <v>6117</v>
+      </c>
+      <c r="H159" t="n">
         <v>6126.166666666667</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="L159" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5978,18 +6811,27 @@
         <v>49.393</v>
       </c>
       <c r="G160" t="n">
+        <v>6117.666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>6125.916666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="L160" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6013,18 +6855,27 @@
         <v>1798.824</v>
       </c>
       <c r="G161" t="n">
+        <v>6117.666666666667</v>
+      </c>
+      <c r="H161" t="n">
         <v>6126.416666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="L161" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6048,18 +6899,27 @@
         <v>501.3972</v>
       </c>
       <c r="G162" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H162" t="n">
         <v>6126.75</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="L162" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6083,18 +6943,27 @@
         <v>3.6804</v>
       </c>
       <c r="G163" t="n">
+        <v>6121.333333333333</v>
+      </c>
+      <c r="H163" t="n">
         <v>6126.833333333333</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="L163" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6118,18 +6987,27 @@
         <v>100</v>
       </c>
       <c r="G164" t="n">
+        <v>6122.333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>6127.25</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+      <c r="L164" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6153,18 +7031,27 @@
         <v>57.7951</v>
       </c>
       <c r="G165" t="n">
+        <v>6126</v>
+      </c>
+      <c r="H165" t="n">
         <v>6128.5</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+      <c r="L165" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6188,18 +7075,27 @@
         <v>420.0566</v>
       </c>
       <c r="G166" t="n">
+        <v>6128.333333333333</v>
+      </c>
+      <c r="H166" t="n">
         <v>6129.333333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6223,18 +7119,27 @@
         <v>636</v>
       </c>
       <c r="G167" t="n">
+        <v>6131</v>
+      </c>
+      <c r="H167" t="n">
         <v>6130.333333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+      <c r="L167" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6258,18 +7163,27 @@
         <v>100</v>
       </c>
       <c r="G168" t="n">
+        <v>6133.333333333333</v>
+      </c>
+      <c r="H168" t="n">
         <v>6131.25</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
+      <c r="L168" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6293,18 +7207,27 @@
         <v>50</v>
       </c>
       <c r="G169" t="n">
+        <v>6133.666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>6131.666666666667</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
+      <c r="L169" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6328,18 +7251,27 @@
         <v>15.0045</v>
       </c>
       <c r="G170" t="n">
+        <v>6134.666666666667</v>
+      </c>
+      <c r="H170" t="n">
         <v>6132.5</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
+      <c r="L170" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6363,18 +7295,27 @@
         <v>144.5311</v>
       </c>
       <c r="G171" t="n">
+        <v>6137.666666666667</v>
+      </c>
+      <c r="H171" t="n">
         <v>6133.333333333333</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
+      <c r="L171" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6398,18 +7339,27 @@
         <v>0.0009</v>
       </c>
       <c r="G172" t="n">
+        <v>6138.333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>6134</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
+      <c r="L172" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6433,18 +7383,27 @@
         <v>1.1</v>
       </c>
       <c r="G173" t="n">
+        <v>6140.333333333333</v>
+      </c>
+      <c r="H173" t="n">
         <v>6134.416666666667</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
+      <c r="L173" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6468,18 +7427,27 @@
         <v>78</v>
       </c>
       <c r="G174" t="n">
+        <v>6144.333333333333</v>
+      </c>
+      <c r="H174" t="n">
         <v>6135</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
+      <c r="L174" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6503,18 +7471,27 @@
         <v>88.62</v>
       </c>
       <c r="G175" t="n">
+        <v>6148</v>
+      </c>
+      <c r="H175" t="n">
         <v>6135.5</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
+      <c r="L175" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6538,18 +7515,27 @@
         <v>758.0946</v>
       </c>
       <c r="G176" t="n">
+        <v>6150.666666666667</v>
+      </c>
+      <c r="H176" t="n">
         <v>6135.75</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
+      <c r="L176" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6573,18 +7559,27 @@
         <v>99.1773</v>
       </c>
       <c r="G177" t="n">
+        <v>6152.333333333333</v>
+      </c>
+      <c r="H177" t="n">
         <v>6136.166666666667</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
+      <c r="L177" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6608,18 +7603,27 @@
         <v>9.9</v>
       </c>
       <c r="G178" t="n">
+        <v>6152.666666666667</v>
+      </c>
+      <c r="H178" t="n">
         <v>6135.916666666667</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
+      <c r="L178" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6643,18 +7647,27 @@
         <v>539.658</v>
       </c>
       <c r="G179" t="n">
+        <v>6152.666666666667</v>
+      </c>
+      <c r="H179" t="n">
         <v>6135.5</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
+      <c r="L179" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6678,18 +7691,29 @@
         <v>177.5082</v>
       </c>
       <c r="G180" t="n">
+        <v>6151</v>
+      </c>
+      <c r="H180" t="n">
         <v>6135.25</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>6125</v>
+      </c>
+      <c r="L180" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6713,18 +7737,29 @@
         <v>128.4</v>
       </c>
       <c r="G181" t="n">
+        <v>6149.666666666667</v>
+      </c>
+      <c r="H181" t="n">
         <v>6135</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>6130</v>
+      </c>
+      <c r="L181" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6748,18 +7783,29 @@
         <v>138.5008</v>
       </c>
       <c r="G182" t="n">
+        <v>6149</v>
+      </c>
+      <c r="H182" t="n">
         <v>6135.25</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>6120</v>
+      </c>
+      <c r="L182" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6783,18 +7829,29 @@
         <v>17.0062</v>
       </c>
       <c r="G183" t="n">
+        <v>6148.666666666667</v>
+      </c>
+      <c r="H183" t="n">
         <v>6135.333333333333</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>6145</v>
+      </c>
+      <c r="L183" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6818,18 +7875,27 @@
         <v>6.2319</v>
       </c>
       <c r="G184" t="n">
+        <v>6149.666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>6135.583333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
+      <c r="L184" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6853,18 +7919,27 @@
         <v>0.5182186234817814</v>
       </c>
       <c r="G185" t="n">
+        <v>6150.666666666667</v>
+      </c>
+      <c r="H185" t="n">
         <v>6136.166666666667</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
+      <c r="L185" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6888,18 +7963,27 @@
         <v>106.8</v>
       </c>
       <c r="G186" t="n">
+        <v>6150.333333333333</v>
+      </c>
+      <c r="H186" t="n">
         <v>6136.583333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
+      <c r="L186" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,18 +8007,27 @@
         <v>228.3783</v>
       </c>
       <c r="G187" t="n">
+        <v>6150.666666666667</v>
+      </c>
+      <c r="H187" t="n">
         <v>6136.833333333333</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
+      <c r="L187" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6958,18 +8051,27 @@
         <v>38.4365</v>
       </c>
       <c r="G188" t="n">
+        <v>6150</v>
+      </c>
+      <c r="H188" t="n">
         <v>6136.833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
+      <c r="L188" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6993,18 +8095,27 @@
         <v>100</v>
       </c>
       <c r="G189" t="n">
+        <v>6149.333333333333</v>
+      </c>
+      <c r="H189" t="n">
         <v>6137</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
+      <c r="L189" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7028,18 +8139,27 @@
         <v>89.9418</v>
       </c>
       <c r="G190" t="n">
+        <v>6148.666666666667</v>
+      </c>
+      <c r="H190" t="n">
         <v>6137.166666666667</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
+      <c r="L190" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7063,18 +8183,27 @@
         <v>69.8165</v>
       </c>
       <c r="G191" t="n">
+        <v>6148.666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>6137.333333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
+      <c r="L191" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7098,18 +8227,27 @@
         <v>1.2011</v>
       </c>
       <c r="G192" t="n">
+        <v>6148.666666666667</v>
+      </c>
+      <c r="H192" t="n">
         <v>6137.416666666667</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
+      <c r="L192" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7133,18 +8271,27 @@
         <v>0.2</v>
       </c>
       <c r="G193" t="n">
+        <v>6150.333333333333</v>
+      </c>
+      <c r="H193" t="n">
         <v>6137.5</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
+      <c r="L193" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7168,18 +8315,27 @@
         <v>100.0406</v>
       </c>
       <c r="G194" t="n">
+        <v>6151.666666666667</v>
+      </c>
+      <c r="H194" t="n">
         <v>6137.416666666667</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
+      <c r="L194" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7203,18 +8359,27 @@
         <v>0.9992</v>
       </c>
       <c r="G195" t="n">
+        <v>6152</v>
+      </c>
+      <c r="H195" t="n">
         <v>6137.416666666667</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
+      <c r="L195" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,18 +8403,27 @@
         <v>0.2008</v>
       </c>
       <c r="G196" t="n">
+        <v>6153</v>
+      </c>
+      <c r="H196" t="n">
         <v>6137.416666666667</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
+      <c r="L196" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7273,18 +8447,27 @@
         <v>6.476</v>
       </c>
       <c r="G197" t="n">
+        <v>6151.333333333333</v>
+      </c>
+      <c r="H197" t="n">
         <v>6137</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
+      <c r="L197" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7308,18 +8491,29 @@
         <v>3.1511</v>
       </c>
       <c r="G198" t="n">
+        <v>6149.333333333333</v>
+      </c>
+      <c r="H198" t="n">
         <v>6136.75</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>6120</v>
+      </c>
+      <c r="L198" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7343,18 +8537,29 @@
         <v>69.07089999999999</v>
       </c>
       <c r="G199" t="n">
+        <v>6146.333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>6136.416666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>6115</v>
+      </c>
+      <c r="L199" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7378,18 +8583,29 @@
         <v>1209.4128</v>
       </c>
       <c r="G200" t="n">
+        <v>6140.666666666667</v>
+      </c>
+      <c r="H200" t="n">
         <v>6135.75</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>6110</v>
+      </c>
+      <c r="L200" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7413,18 +8629,29 @@
         <v>154.5712</v>
       </c>
       <c r="G201" t="n">
+        <v>6136.666666666667</v>
+      </c>
+      <c r="H201" t="n">
         <v>6135.166666666667</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>6090</v>
+      </c>
+      <c r="L201" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7448,18 +8675,29 @@
         <v>60.0743</v>
       </c>
       <c r="G202" t="n">
+        <v>6132</v>
+      </c>
+      <c r="H202" t="n">
         <v>6134.583333333333</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>6095</v>
+      </c>
+      <c r="L202" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7483,18 +8721,29 @@
         <v>0.1</v>
       </c>
       <c r="G203" t="n">
+        <v>6130</v>
+      </c>
+      <c r="H203" t="n">
         <v>6134.416666666667</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>6095</v>
+      </c>
+      <c r="L203" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7518,18 +8767,27 @@
         <v>172.534</v>
       </c>
       <c r="G204" t="n">
+        <v>6126.666666666667</v>
+      </c>
+      <c r="H204" t="n">
         <v>6134.333333333333</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
+      <c r="L204" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7553,18 +8811,27 @@
         <v>105</v>
       </c>
       <c r="G205" t="n">
+        <v>6123</v>
+      </c>
+      <c r="H205" t="n">
         <v>6134.333333333333</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
+      <c r="L205" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7588,22 +8855,27 @@
         <v>30</v>
       </c>
       <c r="G206" t="n">
+        <v>6120.666666666667</v>
+      </c>
+      <c r="H206" t="n">
         <v>6134.416666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>6105</v>
-      </c>
-      <c r="K206" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7627,26 +8899,27 @@
         <v>30</v>
       </c>
       <c r="G207" t="n">
+        <v>6117.333333333333</v>
+      </c>
+      <c r="H207" t="n">
         <v>6134.583333333333</v>
       </c>
-      <c r="H207" t="n">
-        <v>1</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>6120</v>
-      </c>
-      <c r="K207" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7670,24 +8943,27 @@
         <v>6.392</v>
       </c>
       <c r="G208" t="n">
+        <v>6115.333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>6134.916666666667</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7711,24 +8987,27 @@
         <v>289.5046</v>
       </c>
       <c r="G209" t="n">
+        <v>6114.666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>6135.333333333333</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7752,24 +9031,27 @@
         <v>81.0766</v>
       </c>
       <c r="G210" t="n">
+        <v>6114.333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>6135.833333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7793,24 +9075,27 @@
         <v>39.91775244299674</v>
       </c>
       <c r="G211" t="n">
+        <v>6114.666666666667</v>
+      </c>
+      <c r="H211" t="n">
         <v>6136.416666666667</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7834,24 +9119,27 @@
         <v>4.1193</v>
       </c>
       <c r="G212" t="n">
+        <v>6115.666666666667</v>
+      </c>
+      <c r="H212" t="n">
         <v>6136.75</v>
       </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7875,24 +9163,27 @@
         <v>3.4</v>
       </c>
       <c r="G213" t="n">
+        <v>6117</v>
+      </c>
+      <c r="H213" t="n">
         <v>6137.083333333333</v>
       </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7916,24 +9207,27 @@
         <v>23.8268</v>
       </c>
       <c r="G214" t="n">
+        <v>6117.333333333333</v>
+      </c>
+      <c r="H214" t="n">
         <v>6136.75</v>
       </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7957,24 +9251,27 @@
         <v>462.1546</v>
       </c>
       <c r="G215" t="n">
+        <v>6120</v>
+      </c>
+      <c r="H215" t="n">
         <v>6136.5</v>
       </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7998,24 +9295,27 @@
         <v>58.8411</v>
       </c>
       <c r="G216" t="n">
+        <v>6121.666666666667</v>
+      </c>
+      <c r="H216" t="n">
         <v>6136.583333333333</v>
       </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8039,24 +9339,27 @@
         <v>120</v>
       </c>
       <c r="G217" t="n">
+        <v>6123</v>
+      </c>
+      <c r="H217" t="n">
         <v>6136</v>
       </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8080,24 +9383,27 @@
         <v>48.89</v>
       </c>
       <c r="G218" t="n">
+        <v>6124</v>
+      </c>
+      <c r="H218" t="n">
         <v>6136.083333333333</v>
       </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8121,24 +9427,27 @@
         <v>212</v>
       </c>
       <c r="G219" t="n">
+        <v>6125.333333333333</v>
+      </c>
+      <c r="H219" t="n">
         <v>6136.416666666667</v>
       </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8162,24 +9471,27 @@
         <v>125.6</v>
       </c>
       <c r="G220" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H220" t="n">
         <v>6136.666666666667</v>
       </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8203,24 +9515,27 @@
         <v>2.4</v>
       </c>
       <c r="G221" t="n">
+        <v>6129</v>
+      </c>
+      <c r="H221" t="n">
         <v>6137.25</v>
       </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8244,24 +9559,27 @@
         <v>200</v>
       </c>
       <c r="G222" t="n">
+        <v>6132.333333333333</v>
+      </c>
+      <c r="H222" t="n">
         <v>6137.666666666667</v>
       </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8285,24 +9603,27 @@
         <v>578.175</v>
       </c>
       <c r="G223" t="n">
+        <v>6134.666666666667</v>
+      </c>
+      <c r="H223" t="n">
         <v>6138.25</v>
       </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8326,24 +9647,27 @@
         <v>1005.83</v>
       </c>
       <c r="G224" t="n">
+        <v>6136.333333333333</v>
+      </c>
+      <c r="H224" t="n">
         <v>6138.833333333333</v>
       </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8367,24 +9691,27 @@
         <v>3.8203</v>
       </c>
       <c r="G225" t="n">
+        <v>6138.333333333333</v>
+      </c>
+      <c r="H225" t="n">
         <v>6138.916666666667</v>
       </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8408,24 +9735,27 @@
         <v>12.2683</v>
       </c>
       <c r="G226" t="n">
+        <v>6139.333333333333</v>
+      </c>
+      <c r="H226" t="n">
         <v>6139.166666666667</v>
       </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
+      <c r="J226" t="n">
+        <v>0</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8449,24 +9779,27 @@
         <v>333.5413</v>
       </c>
       <c r="G227" t="n">
+        <v>6140.666666666667</v>
+      </c>
+      <c r="H227" t="n">
         <v>6139.166666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
+      <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8490,24 +9823,27 @@
         <v>0.3956</v>
       </c>
       <c r="G228" t="n">
+        <v>6142</v>
+      </c>
+      <c r="H228" t="n">
         <v>6139.25</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
+      <c r="J228" t="n">
+        <v>0</v>
+      </c>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8531,24 +9867,27 @@
         <v>72.459</v>
       </c>
       <c r="G229" t="n">
+        <v>6144.666666666667</v>
+      </c>
+      <c r="H229" t="n">
         <v>6139.5</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
+      <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8572,24 +9911,27 @@
         <v>190.8248</v>
       </c>
       <c r="G230" t="n">
+        <v>6146</v>
+      </c>
+      <c r="H230" t="n">
         <v>6139.333333333333</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
+      <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8613,24 +9955,27 @@
         <v>48.8887</v>
       </c>
       <c r="G231" t="n">
+        <v>6148.666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>6139.333333333333</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
+      <c r="J231" t="n">
+        <v>0</v>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8654,24 +9999,27 @@
         <v>446.6012</v>
       </c>
       <c r="G232" t="n">
+        <v>6151.666666666667</v>
+      </c>
+      <c r="H232" t="n">
         <v>6139.333333333333</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
+      <c r="J232" t="n">
+        <v>0</v>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8695,24 +10043,27 @@
         <v>23.3784</v>
       </c>
       <c r="G233" t="n">
+        <v>6152.333333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>6139.083333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
+      <c r="J233" t="n">
+        <v>0</v>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8736,24 +10087,27 @@
         <v>203</v>
       </c>
       <c r="G234" t="n">
+        <v>6153</v>
+      </c>
+      <c r="H234" t="n">
         <v>6138.583333333333</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
+      <c r="J234" t="n">
+        <v>0</v>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8777,24 +10131,27 @@
         <v>30.3863</v>
       </c>
       <c r="G235" t="n">
+        <v>6154</v>
+      </c>
+      <c r="H235" t="n">
         <v>6138.166666666667</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8818,24 +10175,27 @@
         <v>579.8988000000001</v>
       </c>
       <c r="G236" t="n">
+        <v>6153</v>
+      </c>
+      <c r="H236" t="n">
         <v>6137.833333333333</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M236" t="n">
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8859,24 +10219,27 @@
         <v>22.7345</v>
       </c>
       <c r="G237" t="n">
+        <v>6151.666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>6137.5</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M237" t="n">
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8900,24 +10263,27 @@
         <v>9.4529</v>
       </c>
       <c r="G238" t="n">
+        <v>6149.666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>6137.5</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M238" t="n">
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8941,24 +10307,27 @@
         <v>9.460599999999999</v>
       </c>
       <c r="G239" t="n">
+        <v>6147.333333333333</v>
+      </c>
+      <c r="H239" t="n">
         <v>6137.5</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M239" t="n">
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8982,24 +10351,27 @@
         <v>4.1874</v>
       </c>
       <c r="G240" t="n">
+        <v>6145</v>
+      </c>
+      <c r="H240" t="n">
         <v>6137.416666666667</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M240" t="n">
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9023,24 +10395,29 @@
         <v>16.6549</v>
       </c>
       <c r="G241" t="n">
+        <v>6143</v>
+      </c>
+      <c r="H241" t="n">
         <v>6137.5</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
       <c r="K241" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M241" t="n">
+        <v>6125</v>
+      </c>
+      <c r="L241" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9064,24 +10441,29 @@
         <v>9.468299999999999</v>
       </c>
       <c r="G242" t="n">
+        <v>6140.666666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>6137.083333333333</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
       <c r="K242" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M242" t="n">
+        <v>6125</v>
+      </c>
+      <c r="L242" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9105,24 +10487,27 @@
         <v>9.468299999999999</v>
       </c>
       <c r="G243" t="n">
+        <v>6138.333333333333</v>
+      </c>
+      <c r="H243" t="n">
         <v>6136.666666666667</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M243" t="n">
+      <c r="J243" t="n">
+        <v>0</v>
+      </c>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9146,24 +10531,29 @@
         <v>9.468299999999999</v>
       </c>
       <c r="G244" t="n">
+        <v>6136</v>
+      </c>
+      <c r="H244" t="n">
         <v>6136.083333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0</v>
+      </c>
       <c r="K244" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M244" t="n">
+        <v>6120</v>
+      </c>
+      <c r="L244" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9187,24 +10577,29 @@
         <v>9.476100000000001</v>
       </c>
       <c r="G245" t="n">
+        <v>6133.666666666667</v>
+      </c>
+      <c r="H245" t="n">
         <v>6135.083333333333</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0</v>
+      </c>
       <c r="K245" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M245" t="n">
+        <v>6120</v>
+      </c>
+      <c r="L245" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9228,24 +10623,29 @@
         <v>16.6549</v>
       </c>
       <c r="G246" t="n">
+        <v>6130.333333333333</v>
+      </c>
+      <c r="H246" t="n">
         <v>6134.333333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0</v>
+      </c>
       <c r="K246" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M246" t="n">
+        <v>6115</v>
+      </c>
+      <c r="L246" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,24 +10669,29 @@
         <v>9.4838</v>
       </c>
       <c r="G247" t="n">
+        <v>6127</v>
+      </c>
+      <c r="H247" t="n">
         <v>6133.416666666667</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0</v>
+      </c>
       <c r="K247" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M247" t="n">
+        <v>6110</v>
+      </c>
+      <c r="L247" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9310,24 +10715,29 @@
         <v>102.1856</v>
       </c>
       <c r="G248" t="n">
+        <v>6124</v>
+      </c>
+      <c r="H248" t="n">
         <v>6132.583333333333</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0</v>
+      </c>
       <c r="K248" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M248" t="n">
+        <v>6110</v>
+      </c>
+      <c r="L248" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9351,24 +10761,29 @@
         <v>96.13939999999999</v>
       </c>
       <c r="G249" t="n">
+        <v>6121.333333333333</v>
+      </c>
+      <c r="H249" t="n">
         <v>6131.583333333333</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M249" t="n">
+        <v>6100</v>
+      </c>
+      <c r="L249" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9392,24 +10807,29 @@
         <v>9.4916</v>
       </c>
       <c r="G250" t="n">
+        <v>6118.666666666667</v>
+      </c>
+      <c r="H250" t="n">
         <v>6130.666666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="n">
         <v>6105</v>
       </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M250" t="n">
+      <c r="L250" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9433,24 +10853,29 @@
         <v>1.2</v>
       </c>
       <c r="G251" t="n">
+        <v>6116.666666666667</v>
+      </c>
+      <c r="H251" t="n">
         <v>6129.833333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="n">
         <v>6105</v>
       </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M251" t="n">
+      <c r="L251" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9474,24 +10899,29 @@
         <v>9.4916</v>
       </c>
       <c r="G252" t="n">
+        <v>6114.666666666667</v>
+      </c>
+      <c r="H252" t="n">
         <v>6129</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="n">
         <v>6105</v>
       </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M252" t="n">
+      <c r="L252" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9515,26 +10945,29 @@
         <v>9.4994</v>
       </c>
       <c r="G253" t="n">
+        <v>6112.666666666667</v>
+      </c>
+      <c r="H253" t="n">
         <v>6128.083333333333</v>
       </c>
-      <c r="H253" t="n">
-        <v>1</v>
-      </c>
       <c r="I253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J253" t="n">
-        <v>6105</v>
+        <v>0</v>
       </c>
       <c r="K253" t="n">
         <v>6105</v>
       </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M253" t="n">
+      <c r="L253" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9558,26 +10991,29 @@
         <v>81.95999999999999</v>
       </c>
       <c r="G254" t="n">
+        <v>6111</v>
+      </c>
+      <c r="H254" t="n">
         <v>6127.333333333333</v>
       </c>
-      <c r="H254" t="n">
-        <v>1</v>
-      </c>
       <c r="I254" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
         <v>6100</v>
       </c>
-      <c r="K254" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M254" t="n">
+      <c r="L254" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9601,26 +11037,29 @@
         <v>5.2</v>
       </c>
       <c r="G255" t="n">
+        <v>6109.666666666667</v>
+      </c>
+      <c r="H255" t="n">
         <v>6126.833333333333</v>
       </c>
-      <c r="H255" t="n">
-        <v>1</v>
-      </c>
       <c r="I255" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J255" t="n">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
         <v>6100</v>
       </c>
-      <c r="K255" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M255" t="n">
+      <c r="L255" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9644,26 +11083,29 @@
         <v>9.4994</v>
       </c>
       <c r="G256" t="n">
+        <v>6108</v>
+      </c>
+      <c r="H256" t="n">
         <v>6126.25</v>
       </c>
-      <c r="H256" t="n">
-        <v>1</v>
-      </c>
       <c r="I256" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J256" t="n">
-        <v>6105</v>
+        <v>0</v>
       </c>
       <c r="K256" t="n">
         <v>6105</v>
       </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M256" t="n">
+      <c r="L256" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N256" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9687,26 +11129,29 @@
         <v>9.4994</v>
       </c>
       <c r="G257" t="n">
+        <v>6106.666666666667</v>
+      </c>
+      <c r="H257" t="n">
         <v>6125.916666666667</v>
       </c>
-      <c r="H257" t="n">
-        <v>1</v>
-      </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
         <v>6100</v>
       </c>
-      <c r="K257" t="n">
-        <v>6105</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M257" t="n">
+      <c r="L257" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N257" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9730,26 +11175,487 @@
         <v>199</v>
       </c>
       <c r="G258" t="n">
+        <v>6105.666666666667</v>
+      </c>
+      <c r="H258" t="n">
         <v>6125.75</v>
       </c>
-      <c r="H258" t="n">
-        <v>1</v>
-      </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="n">
         <v>6100</v>
       </c>
-      <c r="K258" t="n">
+      <c r="L258" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
         <v>6105</v>
       </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M258" t="n">
+      <c r="C259" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D259" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E259" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F259" t="n">
+        <v>9.4916</v>
+      </c>
+      <c r="G259" t="n">
+        <v>6104.666666666667</v>
+      </c>
+      <c r="H259" t="n">
+        <v>6125.666666666667</v>
+      </c>
+      <c r="I259" t="n">
+        <v>1</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="n">
+        <v>6105</v>
+      </c>
+      <c r="L259" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C260" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D260" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E260" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F260" t="n">
+        <v>9.4916</v>
+      </c>
+      <c r="G260" t="n">
+        <v>6104.333333333333</v>
+      </c>
+      <c r="H260" t="n">
+        <v>6126</v>
+      </c>
+      <c r="I260" t="n">
+        <v>1</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>6105</v>
+      </c>
+      <c r="L260" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>6115</v>
+      </c>
+      <c r="C261" t="n">
+        <v>6115</v>
+      </c>
+      <c r="D261" t="n">
+        <v>6115</v>
+      </c>
+      <c r="E261" t="n">
+        <v>6115</v>
+      </c>
+      <c r="F261" t="n">
+        <v>9.476100000000001</v>
+      </c>
+      <c r="G261" t="n">
+        <v>6104.666666666667</v>
+      </c>
+      <c r="H261" t="n">
+        <v>6126.333333333333</v>
+      </c>
+      <c r="I261" t="n">
+        <v>1</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>6110</v>
+      </c>
+      <c r="L261" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>6125</v>
+      </c>
+      <c r="C262" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D262" t="n">
+        <v>6125</v>
+      </c>
+      <c r="E262" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F262" t="n">
+        <v>96.13160000000001</v>
+      </c>
+      <c r="G262" t="n">
+        <v>6104.666666666667</v>
+      </c>
+      <c r="H262" t="n">
+        <v>6126.583333333333</v>
+      </c>
+      <c r="I262" t="n">
+        <v>1</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>6115</v>
+      </c>
+      <c r="L262" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F263" t="n">
+        <v>9.4916</v>
+      </c>
+      <c r="G263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="H263" t="n">
+        <v>6126.333333333333</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C264" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D264" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E264" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G264" t="n">
+        <v>6105</v>
+      </c>
+      <c r="H264" t="n">
+        <v>6126.166666666667</v>
+      </c>
+      <c r="I264" t="n">
+        <v>1</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="n">
+        <v>6105</v>
+      </c>
+      <c r="L264" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C265" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D265" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E265" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F265" t="n">
+        <v>9.4916</v>
+      </c>
+      <c r="G265" t="n">
+        <v>6105</v>
+      </c>
+      <c r="H265" t="n">
+        <v>6126.166666666667</v>
+      </c>
+      <c r="I265" t="n">
+        <v>1</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>6105</v>
+      </c>
+      <c r="L265" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C266" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D266" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E266" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F266" t="n">
+        <v>9.4916</v>
+      </c>
+      <c r="G266" t="n">
+        <v>6105</v>
+      </c>
+      <c r="H266" t="n">
+        <v>6125.916666666667</v>
+      </c>
+      <c r="I266" t="n">
+        <v>1</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="n">
+        <v>6105</v>
+      </c>
+      <c r="L266" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N266" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C267" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D267" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E267" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F267" t="n">
+        <v>26.8679</v>
+      </c>
+      <c r="G267" t="n">
+        <v>6104.666666666667</v>
+      </c>
+      <c r="H267" t="n">
+        <v>6125.833333333333</v>
+      </c>
+      <c r="I267" t="n">
+        <v>1</v>
+      </c>
+      <c r="J267" t="n">
+        <v>0</v>
+      </c>
+      <c r="K267" t="n">
+        <v>6105</v>
+      </c>
+      <c r="L267" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N267" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C268" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D268" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E268" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F268" t="n">
+        <v>9.4994</v>
+      </c>
+      <c r="G268" t="n">
+        <v>6104.666666666667</v>
+      </c>
+      <c r="H268" t="n">
+        <v>6125.416666666667</v>
+      </c>
+      <c r="I268" t="n">
+        <v>1</v>
+      </c>
+      <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>6100</v>
+      </c>
+      <c r="L268" t="n">
+        <v>6120</v>
+      </c>
+      <c r="M268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N268" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2020-01-14 BackTest ETC.xlsx
+++ b/BackTest/2020-01-14 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N326"/>
+  <dimension ref="A1:M326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2400,18 +2233,15 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2616,18 +2431,15 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2652,18 +2464,15 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2688,18 +2497,15 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2724,18 +2530,15 @@
         <v>1773.170721171563</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2760,18 +2563,15 @@
         <v>1871.370721171563</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2796,18 +2596,15 @@
         <v>1823.500921171563</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>1</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2904,18 +2695,15 @@
         <v>1851.639921171563</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2940,18 +2728,15 @@
         <v>1851.639921171563</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2976,18 +2761,15 @@
         <v>1841.035821171563</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3012,18 +2794,15 @@
         <v>1894.819921171563</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3048,18 +2827,15 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3084,18 +2860,15 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3120,18 +2893,15 @@
         <v>2022.709921171563</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3156,18 +2926,15 @@
         <v>2026.409921171563</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3192,18 +2959,15 @@
         <v>2020.109921171563</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3228,18 +2992,15 @@
         <v>2126.409921171563</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3264,18 +3025,15 @@
         <v>2106.409921171563</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3300,18 +3058,15 @@
         <v>2308.529921171563</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3336,18 +3091,15 @@
         <v>2395.896221171563</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3372,18 +3124,15 @@
         <v>1259.151621171563</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>1</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7154,16 +6591,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7190,16 +6624,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7226,16 +6657,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7262,16 +6690,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7298,16 +6723,13 @@
       <c r="H192" t="n">
         <v>0</v>
       </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7334,16 +6756,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7370,16 +6789,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7406,16 +6822,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7442,16 +6855,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7478,16 +6888,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7514,16 +6921,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7550,16 +6954,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7586,16 +6987,13 @@
       <c r="H200" t="n">
         <v>0</v>
       </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7622,16 +7020,13 @@
       <c r="H201" t="n">
         <v>0</v>
       </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7658,16 +7053,13 @@
       <c r="H202" t="n">
         <v>0</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7694,16 +7086,13 @@
       <c r="H203" t="n">
         <v>0</v>
       </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7730,16 +7119,13 @@
       <c r="H204" t="n">
         <v>0</v>
       </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7766,16 +7152,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7802,16 +7185,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7838,16 +7218,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7874,16 +7251,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7908,18 +7282,19 @@
         <v>-14441.22641372957</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="inlineStr"/>
+        <v>6100</v>
+      </c>
+      <c r="J209" t="n">
+        <v>6100</v>
+      </c>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7944,18 +7319,23 @@
         <v>-14297.22641372957</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+        <v>6105</v>
+      </c>
+      <c r="J210" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7980,18 +7360,23 @@
         <v>-14297.22641372957</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+        <v>6115</v>
+      </c>
+      <c r="J211" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8016,18 +7401,19 @@
         <v>-13835.37901372957</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
+        <v>6115</v>
+      </c>
+      <c r="J212" t="n">
+        <v>6115</v>
+      </c>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8052,18 +7438,23 @@
         <v>-13819.32001372957</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+        <v>6135</v>
+      </c>
+      <c r="J213" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8088,18 +7479,23 @@
         <v>-13822.35301372957</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+        <v>6145</v>
+      </c>
+      <c r="J214" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8126,16 +7522,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8162,16 +7555,13 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8198,16 +7588,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8234,16 +7621,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8270,16 +7654,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8306,16 +7687,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8342,16 +7720,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8378,16 +7753,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8414,16 +7786,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8450,16 +7819,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8486,16 +7852,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8522,16 +7885,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8558,16 +7918,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8594,16 +7951,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8630,16 +7984,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8666,16 +8017,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8702,16 +8050,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8738,16 +8083,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8774,16 +8116,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8810,16 +8149,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8846,16 +8182,13 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8882,16 +8215,13 @@
       <c r="H236" t="n">
         <v>0</v>
       </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8918,16 +8248,13 @@
       <c r="H237" t="n">
         <v>0</v>
       </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8954,16 +8281,13 @@
       <c r="H238" t="n">
         <v>0</v>
       </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8990,16 +8314,13 @@
       <c r="H239" t="n">
         <v>0</v>
       </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9026,16 +8347,13 @@
       <c r="H240" t="n">
         <v>0</v>
       </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9060,18 +8378,19 @@
         <v>-14316.71331372957</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
+        <v>6145</v>
+      </c>
+      <c r="J241" t="n">
+        <v>6145</v>
+      </c>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9098,16 +8417,19 @@
       <c r="H242" t="n">
         <v>0</v>
       </c>
-      <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>6145</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9134,16 +8456,19 @@
       <c r="H243" t="n">
         <v>0</v>
       </c>
-      <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>6145</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9170,16 +8495,13 @@
       <c r="H244" t="n">
         <v>0</v>
       </c>
-      <c r="I244" t="n">
-        <v>0</v>
-      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9206,16 +8528,13 @@
       <c r="H245" t="n">
         <v>0</v>
       </c>
-      <c r="I245" t="n">
-        <v>0</v>
-      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9242,16 +8561,13 @@
       <c r="H246" t="n">
         <v>0</v>
       </c>
-      <c r="I246" t="n">
-        <v>0</v>
-      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9276,18 +8592,15 @@
         <v>-14126.82139510609</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9314,16 +8627,13 @@
       <c r="H248" t="n">
         <v>0</v>
       </c>
-      <c r="I248" t="n">
-        <v>0</v>
-      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9348,18 +8658,15 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9384,18 +8691,15 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9420,18 +8724,15 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9456,18 +8757,15 @@
         <v>-14386.62029510609</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9492,18 +8790,15 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9530,16 +8825,13 @@
       <c r="H254" t="n">
         <v>0</v>
       </c>
-      <c r="I254" t="n">
-        <v>0</v>
-      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9566,16 +8858,13 @@
       <c r="H255" t="n">
         <v>0</v>
       </c>
-      <c r="I255" t="n">
-        <v>0</v>
-      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9602,16 +8891,13 @@
       <c r="H256" t="n">
         <v>0</v>
       </c>
-      <c r="I256" t="n">
-        <v>0</v>
-      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9638,16 +8924,13 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9674,16 +8957,13 @@
       <c r="H258" t="n">
         <v>0</v>
       </c>
-      <c r="I258" t="n">
-        <v>0</v>
-      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -9710,16 +8990,13 @@
       <c r="H259" t="n">
         <v>0</v>
       </c>
-      <c r="I259" t="n">
-        <v>0</v>
-      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -9746,16 +9023,13 @@
       <c r="H260" t="n">
         <v>0</v>
       </c>
-      <c r="I260" t="n">
-        <v>0</v>
-      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -9780,18 +9054,15 @@
         <v>-15521.05909510609</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9818,16 +9089,13 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9854,16 +9122,13 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9890,16 +9155,13 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9926,16 +9188,13 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9962,16 +9221,13 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9996,18 +9252,21 @@
         <v>-15502.69649510609</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="n">
-        <v>0</v>
+        <v>6125</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10032,18 +9291,21 @@
         <v>-15583.77309510609</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="n">
-        <v>0</v>
+        <v>6135</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10068,18 +9330,21 @@
         <v>-15543.8553426631</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="n">
-        <v>0</v>
+        <v>6130</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10106,16 +9371,17 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10142,16 +9408,17 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10178,16 +9445,17 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10214,16 +9482,17 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10250,16 +9519,17 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10286,16 +9556,17 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>0</v>
-      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="n">
-        <v>1</v>
-      </c>
-      <c r="N275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10322,16 +9593,17 @@
       <c r="H276" t="n">
         <v>0</v>
       </c>
-      <c r="I276" t="n">
-        <v>0</v>
-      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10358,16 +9630,17 @@
       <c r="H277" t="n">
         <v>0</v>
       </c>
-      <c r="I277" t="n">
-        <v>0</v>
-      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10394,16 +9667,17 @@
       <c r="H278" t="n">
         <v>0</v>
       </c>
-      <c r="I278" t="n">
-        <v>0</v>
-      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10430,16 +9704,17 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10466,16 +9741,17 @@
       <c r="H280" t="n">
         <v>0</v>
       </c>
-      <c r="I280" t="n">
-        <v>0</v>
-      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10502,16 +9778,17 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10538,16 +9815,17 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10574,16 +9852,17 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10610,16 +9889,17 @@
       <c r="H284" t="n">
         <v>0</v>
       </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10646,16 +9926,17 @@
       <c r="H285" t="n">
         <v>0</v>
       </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -10682,16 +9963,17 @@
       <c r="H286" t="n">
         <v>0</v>
       </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10718,16 +10000,17 @@
       <c r="H287" t="n">
         <v>0</v>
       </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -10754,16 +10037,17 @@
       <c r="H288" t="n">
         <v>0</v>
       </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -10790,16 +10074,17 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10826,16 +10111,17 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10862,16 +10148,17 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10898,16 +10185,17 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>0</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10934,16 +10222,17 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10970,16 +10259,17 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11006,16 +10296,17 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11042,16 +10333,17 @@
       <c r="H296" t="n">
         <v>0</v>
       </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11078,16 +10370,17 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11114,16 +10407,17 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11150,16 +10444,17 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11186,16 +10481,17 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>0</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11222,16 +10518,17 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>0</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11258,16 +10555,17 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>0</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11292,18 +10590,21 @@
         <v>-15379.9624426631</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="n">
-        <v>0</v>
+        <v>6120</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11328,18 +10629,21 @@
         <v>-15396.6173426631</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="n">
-        <v>0</v>
+        <v>6115</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11364,18 +10668,21 @@
         <v>-15396.6173426631</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="n">
-        <v>0</v>
+        <v>6110</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11400,24 +10707,21 @@
         <v>-15498.8029426631</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I306" t="n">
-        <v>0</v>
-      </c>
-      <c r="J306" t="n">
         <v>6110</v>
       </c>
-      <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr">
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11442,24 +10746,21 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
-      </c>
-      <c r="J307" t="n">
         <v>6100</v>
       </c>
-      <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr">
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11484,24 +10785,21 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I308" t="n">
-        <v>0</v>
-      </c>
-      <c r="J308" t="n">
         <v>6105</v>
       </c>
-      <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr">
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11526,24 +10824,21 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I309" t="n">
-        <v>0</v>
-      </c>
-      <c r="J309" t="n">
         <v>6105</v>
       </c>
-      <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr">
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11568,24 +10863,21 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I310" t="n">
-        <v>0</v>
-      </c>
-      <c r="J310" t="n">
         <v>6105</v>
       </c>
-      <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr">
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11610,24 +10902,21 @@
         <v>-15412.1629426631</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I311" t="n">
-        <v>0</v>
-      </c>
-      <c r="J311" t="n">
         <v>6105</v>
       </c>
-      <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr">
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11652,24 +10941,21 @@
         <v>-15412.1629426631</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>0</v>
-      </c>
-      <c r="J312" t="n">
         <v>6100</v>
       </c>
-      <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr">
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -11694,24 +10980,21 @@
         <v>-15406.9629426631</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I313" t="n">
-        <v>0</v>
-      </c>
-      <c r="J313" t="n">
         <v>6100</v>
       </c>
-      <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr">
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -11736,24 +11019,21 @@
         <v>-15416.4623426631</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I314" t="n">
-        <v>0</v>
-      </c>
-      <c r="J314" t="n">
         <v>6105</v>
       </c>
-      <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr">
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -11778,24 +11058,21 @@
         <v>-15416.4623426631</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I315" t="n">
-        <v>0</v>
-      </c>
-      <c r="J315" t="n">
         <v>6100</v>
       </c>
-      <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr">
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -11820,24 +11097,21 @@
         <v>-15217.4623426631</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I316" t="n">
-        <v>0</v>
-      </c>
-      <c r="J316" t="n">
         <v>6100</v>
       </c>
-      <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr">
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -11862,24 +11136,21 @@
         <v>-15217.4623426631</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I317" t="n">
-        <v>0</v>
-      </c>
-      <c r="J317" t="n">
         <v>6105</v>
       </c>
-      <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr">
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -11904,24 +11175,21 @@
         <v>-15207.9707426631</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318" t="n">
-        <v>0</v>
-      </c>
-      <c r="J318" t="n">
         <v>6105</v>
       </c>
-      <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr">
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11946,24 +11214,21 @@
         <v>-15198.4946426631</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I319" t="n">
-        <v>0</v>
-      </c>
-      <c r="J319" t="n">
         <v>6110</v>
       </c>
-      <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr">
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11988,24 +11253,21 @@
         <v>-15294.6262426631</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I320" t="n">
-        <v>0</v>
-      </c>
-      <c r="J320" t="n">
         <v>6115</v>
       </c>
-      <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr">
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12030,24 +11292,21 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
-      </c>
-      <c r="J321" t="n">
         <v>6110</v>
       </c>
-      <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr">
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12072,24 +11331,21 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I322" t="n">
-        <v>0</v>
-      </c>
-      <c r="J322" t="n">
         <v>6105</v>
       </c>
-      <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr">
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12114,24 +11370,21 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I323" t="n">
-        <v>0</v>
-      </c>
-      <c r="J323" t="n">
         <v>6105</v>
       </c>
-      <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr">
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12156,24 +11409,21 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I324" t="n">
-        <v>0</v>
-      </c>
-      <c r="J324" t="n">
         <v>6105</v>
       </c>
-      <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr">
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12198,24 +11448,21 @@
         <v>-15330.9857426631</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I325" t="n">
-        <v>0</v>
-      </c>
-      <c r="J325" t="n">
         <v>6105</v>
       </c>
-      <c r="K325" t="inlineStr"/>
-      <c r="L325" t="inlineStr">
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M325" t="n">
-        <v>1</v>
-      </c>
-      <c r="N325" t="inlineStr"/>
+      <c r="L325" t="n">
+        <v>1</v>
+      </c>
+      <c r="M325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12240,26 +11487,23 @@
         <v>-15330.9857426631</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I326" t="n">
-        <v>0</v>
-      </c>
-      <c r="J326" t="n">
         <v>6100</v>
       </c>
-      <c r="K326" t="inlineStr"/>
-      <c r="L326" t="inlineStr">
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M326" t="n">
-        <v>1</v>
-      </c>
-      <c r="N326" t="inlineStr"/>
+      <c r="L326" t="n">
+        <v>1</v>
+      </c>
+      <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ETC.xlsx
+++ b/BackTest/2020-01-14 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2233,7 +2233,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H56" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H62" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1773.170721171563</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1871.370721171563</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1823.500921171563</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>1851.639921171563</v>
       </c>
       <c r="H70" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1851.639921171563</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1841.035821171563</v>
       </c>
       <c r="H72" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1894.819921171563</v>
       </c>
       <c r="H73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>2022.709921171563</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>2026.409921171563</v>
       </c>
       <c r="H77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2020.109921171563</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2126.409921171563</v>
       </c>
       <c r="H79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2106.409921171563</v>
       </c>
       <c r="H80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2308.529921171563</v>
       </c>
       <c r="H81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>2395.896221171563</v>
       </c>
       <c r="H82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1259.151621171563</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1235.163321171563</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>960.0633211715634</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>833.8633211715634</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>833.8633211715634</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>855.5007211715633</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1077.905321171563</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1074.763921171563</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1074.763921171563</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1113.091921171563</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1113.091921171563</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1113.091921171563</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1113.091921171563</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1115.153021171563</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1115.153021171563</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1369.798921171563</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1319.798921171563</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1740.575821171563</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1740.575821171563</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1713.979521171563</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1713.979521171563</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1713.979521171563</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1654.926821171563</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1654.926821171563</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1630.901921171564</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1640.238221171564</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1631.908421171564</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1638.136021171563</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1738.136021171563</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1738.136021171563</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1736.083621171563</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2530.139578828437</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3488.437578828437</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3422.377077529736</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3422.377077529736</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4238.544377529735</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4238.544377529735</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4172.007877529735</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4172.007877529735</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4277.304477529735</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4269.686277529735</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4269.686277529735</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4269.686277529735</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4402.698777529735</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-6557.798777529735</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -7216,10 +7216,14 @@
         <v>-14580.02657752974</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>6105</v>
+      </c>
+      <c r="J207" t="n">
+        <v>6105</v>
+      </c>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
@@ -7249,11 +7253,19 @@
         <v>-14605.02657752974</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>6110</v>
+      </c>
+      <c r="J208" t="n">
+        <v>6105</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7282,15 +7294,19 @@
         <v>-14441.22641372957</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>6100</v>
       </c>
       <c r="J209" t="n">
-        <v>6100</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+        <v>6105</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7319,19 +7335,15 @@
         <v>-14297.22641372957</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>6105</v>
       </c>
       <c r="J210" t="n">
-        <v>6100</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6105</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7360,13 +7372,13 @@
         <v>-14297.22641372957</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>6115</v>
       </c>
       <c r="J211" t="n">
-        <v>6100</v>
+        <v>6105</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7401,15 +7413,19 @@
         <v>-13835.37901372957</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>6115</v>
       </c>
       <c r="J212" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+        <v>6105</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7438,19 +7454,15 @@
         <v>-13819.32001372957</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>6135</v>
       </c>
       <c r="J213" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>6135</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7479,13 +7491,11 @@
         <v>-13822.35301372957</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
-      </c>
-      <c r="I214" t="n">
-        <v>6145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>6115</v>
+        <v>6135</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7523,8 +7533,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>6135</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7751,10 +7767,14 @@
         <v>-13324.79271372957</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>6125</v>
+      </c>
+      <c r="J222" t="n">
+        <v>6125</v>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
@@ -7787,8 +7807,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>6125</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7820,8 +7846,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>6125</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8378,14 +8410,10 @@
         <v>-14316.71331372957</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>6145</v>
-      </c>
-      <c r="J241" t="n">
-        <v>6145</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
@@ -8418,14 +8446,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>6145</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8457,14 +8479,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>6145</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8592,7 +8608,7 @@
         <v>-14126.82139510609</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8658,7 +8674,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8691,7 +8707,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8724,7 +8740,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8757,7 +8773,7 @@
         <v>-14386.62029510609</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8790,7 +8806,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8922,10 +8938,14 @@
         <v>-14466.31749510609</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I257" t="n">
+        <v>6115</v>
+      </c>
+      <c r="J257" t="n">
+        <v>6115</v>
+      </c>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
@@ -8955,11 +8975,19 @@
         <v>-15675.73029510609</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I258" t="n">
+        <v>6110</v>
+      </c>
+      <c r="J258" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8988,11 +9016,19 @@
         <v>-15521.15909510609</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I259" t="n">
+        <v>6090</v>
+      </c>
+      <c r="J259" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9021,11 +9057,19 @@
         <v>-15521.15909510609</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I260" t="n">
+        <v>6095</v>
+      </c>
+      <c r="J260" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9056,9 +9100,17 @@
       <c r="H261" t="n">
         <v>1</v>
       </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="I261" t="n">
+        <v>6095</v>
+      </c>
+      <c r="J261" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9087,11 +9139,19 @@
         <v>-15693.59309510609</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>6120</v>
+      </c>
+      <c r="J262" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9120,11 +9180,19 @@
         <v>-15798.59309510609</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I263" t="n">
+        <v>6115</v>
+      </c>
+      <c r="J263" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9153,11 +9221,19 @@
         <v>-15768.59309510609</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I264" t="n">
+        <v>6105</v>
+      </c>
+      <c r="J264" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9186,11 +9262,19 @@
         <v>-15798.59309510609</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>6120</v>
+      </c>
+      <c r="J265" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9219,11 +9303,19 @@
         <v>-15792.20109510609</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>6105</v>
+      </c>
+      <c r="J266" t="n">
+        <v>6115</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9252,15 +9344,17 @@
         <v>-15502.69649510609</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>6125</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>6115</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L267" t="n">
@@ -9291,12 +9385,14 @@
         <v>-15583.77309510609</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>6135</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>6115</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9330,12 +9426,14 @@
         <v>-15543.8553426631</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>6130</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>6115</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9369,10 +9467,14 @@
         <v>-15547.9746426631</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I270" t="n">
+        <v>6140</v>
+      </c>
+      <c r="J270" t="n">
+        <v>6115</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9406,10 +9508,14 @@
         <v>-15547.9746426631</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I271" t="n">
+        <v>6135</v>
+      </c>
+      <c r="J271" t="n">
+        <v>6115</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9446,7 +9552,9 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>6115</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9480,10 +9588,14 @@
         <v>-15109.6468426631</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I273" t="n">
+        <v>6115</v>
+      </c>
+      <c r="J273" t="n">
+        <v>6115</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9520,7 +9632,9 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>6115</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9557,7 +9671,9 @@
         <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>6115</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9594,7 +9710,9 @@
         <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>6115</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9631,7 +9749,9 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>6115</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9668,7 +9788,9 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>6115</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9705,7 +9827,9 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>6115</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9742,7 +9866,9 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>6115</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9779,7 +9905,9 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>6115</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9816,7 +9944,9 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>6115</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9853,7 +9983,9 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>6115</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9890,7 +10022,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>6115</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9927,7 +10061,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>6115</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9964,7 +10100,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>6115</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10001,7 +10139,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>6115</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10038,7 +10178,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>6115</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10075,7 +10217,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>6115</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10112,7 +10256,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>6115</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10149,7 +10295,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>6115</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10186,7 +10334,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>6115</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10223,7 +10373,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>6115</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10260,7 +10412,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>6115</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10297,7 +10451,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>6115</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10334,7 +10490,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>6115</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10371,7 +10529,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>6115</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10408,7 +10568,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>6115</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10445,7 +10607,9 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>6115</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10482,7 +10646,9 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>6115</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10519,7 +10685,9 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>6115</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10556,7 +10724,9 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>6115</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10590,12 +10760,12 @@
         <v>-15379.9624426631</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>6120</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>6115</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10629,12 +10799,12 @@
         <v>-15396.6173426631</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
-      </c>
-      <c r="I304" t="n">
-        <v>6115</v>
-      </c>
-      <c r="J304" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>6115</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10668,12 +10838,14 @@
         <v>-15396.6173426631</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>6110</v>
       </c>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>6115</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10707,12 +10879,14 @@
         <v>-15498.8029426631</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>6110</v>
       </c>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>6115</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10746,12 +10920,14 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>6100</v>
       </c>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>6115</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10785,12 +10961,14 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>6105</v>
       </c>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>6115</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10824,12 +11002,14 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>6105</v>
       </c>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>6115</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10863,12 +11043,14 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>6105</v>
       </c>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>6115</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10902,12 +11084,14 @@
         <v>-15412.1629426631</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>6105</v>
       </c>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>6115</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10941,12 +11125,14 @@
         <v>-15412.1629426631</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>6100</v>
       </c>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>6115</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,12 +11166,14 @@
         <v>-15406.9629426631</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>6100</v>
       </c>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>6115</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11019,12 +11207,14 @@
         <v>-15416.4623426631</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>6105</v>
       </c>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>6115</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11058,12 +11248,14 @@
         <v>-15416.4623426631</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>6100</v>
       </c>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>6115</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11097,12 +11289,14 @@
         <v>-15217.4623426631</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>6100</v>
       </c>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>6115</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11136,12 +11330,14 @@
         <v>-15217.4623426631</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>6105</v>
       </c>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>6115</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11175,12 +11371,14 @@
         <v>-15207.9707426631</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>6105</v>
       </c>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>6115</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11214,12 +11412,14 @@
         <v>-15198.4946426631</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>6110</v>
       </c>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>6115</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11253,12 +11453,14 @@
         <v>-15294.6262426631</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>6115</v>
       </c>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>6115</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11292,12 +11494,14 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>6110</v>
       </c>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>6115</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11331,12 +11535,14 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>6105</v>
       </c>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>6115</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11370,12 +11576,14 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>6105</v>
       </c>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>6115</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11409,12 +11617,14 @@
         <v>-15304.1178426631</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>6105</v>
       </c>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>6115</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11448,12 +11658,14 @@
         <v>-15330.9857426631</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>6105</v>
       </c>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>6115</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11487,12 +11699,14 @@
         <v>-15330.9857426631</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>6100</v>
       </c>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>6115</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11504,6 +11718,6 @@
       <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ETC.xlsx
+++ b/BackTest/2020-01-14 BackTest ETC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1441,7 +1441,7 @@
         <v>286.1773021432231</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>303.9508021432231</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>403.9508021432231</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>257.0120021432231</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>307.4619021432231</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>305.9621021432231</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>365.932002143223</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>941.4882211715631</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>861.4882211715631</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>887.9954211715631</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1418.494321171563</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1773.170721171563</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1871.370721171563</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1823.500921171563</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1828.654621171563</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1828.654621171563</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2126.409921171563</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2106.409921171563</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2308.529921171563</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>2395.896221171563</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1259.151621171563</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>1235.163321171563</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>833.8633211715634</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>855.5007211715633</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>1077.905321171563</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>1074.763921171563</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>1074.763921171563</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>1113.091921171563</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>1113.091921171563</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>1113.091921171563</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>1113.091921171563</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>1115.153021171563</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>1115.153021171563</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>1369.798921171563</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>1319.798921171563</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>1740.575821171563</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>1740.575821171563</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>1713.979521171563</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>1713.979521171563</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>1713.979521171563</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>1654.926821171563</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>1654.926821171563</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>1630.901921171564</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>1640.238221171564</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>1631.908421171564</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>1638.136021171563</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>1738.136021171563</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>1738.136021171563</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>1736.083621171563</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-2530.139578828437</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3488.437578828437</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3422.377077529736</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3422.377077529736</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4238.544377529735</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-4238.544377529735</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-4172.007877529735</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-4172.007877529735</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-4277.304477529735</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-4269.686277529735</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-4269.686277529735</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-4269.686277529735</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-4402.698777529735</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-6557.798777529735</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -7216,14 +7216,10 @@
         <v>-14580.02657752974</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J207" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
@@ -7253,19 +7249,11 @@
         <v>-14605.02657752974</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>6110</v>
-      </c>
-      <c r="J208" t="n">
-        <v>6105</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7294,19 +7282,11 @@
         <v>-14441.22641372957</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>6100</v>
-      </c>
-      <c r="J209" t="n">
-        <v>6105</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7335,14 +7315,10 @@
         <v>-14297.22641372957</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J210" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
@@ -7372,19 +7348,11 @@
         <v>-14297.22641372957</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>6115</v>
-      </c>
-      <c r="J211" t="n">
-        <v>6105</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7413,19 +7381,11 @@
         <v>-13835.37901372957</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>6115</v>
-      </c>
-      <c r="J212" t="n">
-        <v>6105</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7454,14 +7414,10 @@
         <v>-13819.32001372957</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>6135</v>
-      </c>
-      <c r="J213" t="n">
-        <v>6135</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
@@ -7494,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>6135</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7533,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>6135</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7767,14 +7711,10 @@
         <v>-13324.79271372957</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>6125</v>
-      </c>
-      <c r="J222" t="n">
-        <v>6125</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
@@ -7807,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>6125</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7846,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>6125</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8608,7 +8536,7 @@
         <v>-14126.82139510609</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8641,7 +8569,7 @@
         <v>-14216.76319510609</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8674,7 +8602,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8707,7 +8635,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8740,7 +8668,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8773,7 +8701,7 @@
         <v>-14386.62029510609</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8806,7 +8734,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8839,7 +8767,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8872,7 +8800,7 @@
         <v>-14394.09549510609</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8938,14 +8866,10 @@
         <v>-14466.31749510609</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>6115</v>
-      </c>
-      <c r="J257" t="n">
-        <v>6115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
@@ -8975,2333 +8899,1957 @@
         <v>-15675.73029510609</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6095</v>
+      </c>
+      <c r="C259" t="n">
+        <v>6095</v>
+      </c>
+      <c r="D259" t="n">
+        <v>6095</v>
+      </c>
+      <c r="E259" t="n">
+        <v>6095</v>
+      </c>
+      <c r="F259" t="n">
+        <v>154.5712</v>
+      </c>
+      <c r="G259" t="n">
+        <v>-15521.15909510609</v>
+      </c>
+      <c r="H259" t="n">
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6095</v>
+      </c>
+      <c r="C260" t="n">
+        <v>6095</v>
+      </c>
+      <c r="D260" t="n">
+        <v>6095</v>
+      </c>
+      <c r="E260" t="n">
+        <v>6095</v>
+      </c>
+      <c r="F260" t="n">
+        <v>60.0743</v>
+      </c>
+      <c r="G260" t="n">
+        <v>-15521.15909510609</v>
+      </c>
+      <c r="H260" t="n">
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C261" t="n">
+        <v>6120</v>
+      </c>
+      <c r="D261" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E261" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G261" t="n">
+        <v>-15521.05909510609</v>
+      </c>
+      <c r="H261" t="n">
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
         <v>6110</v>
       </c>
-      <c r="J258" t="n">
+      <c r="C262" t="n">
         <v>6115</v>
       </c>
-      <c r="K258" t="inlineStr">
+      <c r="D262" t="n">
+        <v>6115</v>
+      </c>
+      <c r="E262" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F262" t="n">
+        <v>172.534</v>
+      </c>
+      <c r="G262" t="n">
+        <v>-15693.59309510609</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E263" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F263" t="n">
+        <v>105</v>
+      </c>
+      <c r="G263" t="n">
+        <v>-15798.59309510609</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C264" t="n">
+        <v>6120</v>
+      </c>
+      <c r="D264" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E264" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F264" t="n">
+        <v>30</v>
+      </c>
+      <c r="G264" t="n">
+        <v>-15768.59309510609</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C265" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D265" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E265" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F265" t="n">
+        <v>30</v>
+      </c>
+      <c r="G265" t="n">
+        <v>-15798.59309510609</v>
+      </c>
+      <c r="H265" t="n">
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>6125</v>
+      </c>
+      <c r="C266" t="n">
+        <v>6125</v>
+      </c>
+      <c r="D266" t="n">
+        <v>6125</v>
+      </c>
+      <c r="E266" t="n">
+        <v>6125</v>
+      </c>
+      <c r="F266" t="n">
+        <v>6.392</v>
+      </c>
+      <c r="G266" t="n">
+        <v>-15792.20109510609</v>
+      </c>
+      <c r="H266" t="n">
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>6115</v>
+      </c>
+      <c r="C267" t="n">
+        <v>6135</v>
+      </c>
+      <c r="D267" t="n">
+        <v>6135</v>
+      </c>
+      <c r="E267" t="n">
+        <v>6115</v>
+      </c>
+      <c r="F267" t="n">
+        <v>289.5046</v>
+      </c>
+      <c r="G267" t="n">
+        <v>-15502.69649510609</v>
+      </c>
+      <c r="H267" t="n">
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>6130</v>
+      </c>
+      <c r="C268" t="n">
+        <v>6130</v>
+      </c>
+      <c r="D268" t="n">
+        <v>6130</v>
+      </c>
+      <c r="E268" t="n">
+        <v>6130</v>
+      </c>
+      <c r="F268" t="n">
+        <v>81.0766</v>
+      </c>
+      <c r="G268" t="n">
+        <v>-15583.77309510609</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>6140</v>
+      </c>
+      <c r="C269" t="n">
+        <v>6140</v>
+      </c>
+      <c r="D269" t="n">
+        <v>6140</v>
+      </c>
+      <c r="E269" t="n">
+        <v>6140</v>
+      </c>
+      <c r="F269" t="n">
+        <v>39.91775244299674</v>
+      </c>
+      <c r="G269" t="n">
+        <v>-15543.8553426631</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>6135</v>
+      </c>
+      <c r="C270" t="n">
+        <v>6135</v>
+      </c>
+      <c r="D270" t="n">
+        <v>6135</v>
+      </c>
+      <c r="E270" t="n">
+        <v>6135</v>
+      </c>
+      <c r="F270" t="n">
+        <v>4.1193</v>
+      </c>
+      <c r="G270" t="n">
+        <v>-15547.9746426631</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>6135</v>
+      </c>
+      <c r="C271" t="n">
+        <v>6135</v>
+      </c>
+      <c r="D271" t="n">
+        <v>6135</v>
+      </c>
+      <c r="E271" t="n">
+        <v>6135</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="G271" t="n">
+        <v>-15547.9746426631</v>
+      </c>
+      <c r="H271" t="n">
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>6115</v>
+      </c>
+      <c r="C272" t="n">
+        <v>6115</v>
+      </c>
+      <c r="D272" t="n">
+        <v>6115</v>
+      </c>
+      <c r="E272" t="n">
+        <v>6115</v>
+      </c>
+      <c r="F272" t="n">
+        <v>23.8268</v>
+      </c>
+      <c r="G272" t="n">
+        <v>-15571.8014426631</v>
+      </c>
+      <c r="H272" t="n">
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C273" t="n">
+        <v>6130</v>
+      </c>
+      <c r="D273" t="n">
+        <v>6130</v>
+      </c>
+      <c r="E273" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F273" t="n">
+        <v>462.1546</v>
+      </c>
+      <c r="G273" t="n">
+        <v>-15109.6468426631</v>
+      </c>
+      <c r="H273" t="n">
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C274" t="n">
+        <v>6120</v>
+      </c>
+      <c r="D274" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E274" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F274" t="n">
+        <v>58.8411</v>
+      </c>
+      <c r="G274" t="n">
+        <v>-15168.4879426631</v>
+      </c>
+      <c r="H274" t="n">
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C275" t="n">
+        <v>6115</v>
+      </c>
+      <c r="D275" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E275" t="n">
+        <v>6115</v>
+      </c>
+      <c r="F275" t="n">
+        <v>120</v>
+      </c>
+      <c r="G275" t="n">
+        <v>-15288.4879426631</v>
+      </c>
+      <c r="H275" t="n">
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>6135</v>
+      </c>
+      <c r="C276" t="n">
+        <v>6135</v>
+      </c>
+      <c r="D276" t="n">
+        <v>6135</v>
+      </c>
+      <c r="E276" t="n">
+        <v>6135</v>
+      </c>
+      <c r="F276" t="n">
+        <v>48.89</v>
+      </c>
+      <c r="G276" t="n">
+        <v>-15239.5979426631</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>6135</v>
+      </c>
+      <c r="C277" t="n">
+        <v>6135</v>
+      </c>
+      <c r="D277" t="n">
+        <v>6135</v>
+      </c>
+      <c r="E277" t="n">
+        <v>6135</v>
+      </c>
+      <c r="F277" t="n">
+        <v>212</v>
+      </c>
+      <c r="G277" t="n">
+        <v>-15239.5979426631</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>6130</v>
+      </c>
+      <c r="C278" t="n">
+        <v>6130</v>
+      </c>
+      <c r="D278" t="n">
+        <v>6130</v>
+      </c>
+      <c r="E278" t="n">
+        <v>6130</v>
+      </c>
+      <c r="F278" t="n">
+        <v>125.6</v>
+      </c>
+      <c r="G278" t="n">
+        <v>-15365.1979426631</v>
+      </c>
+      <c r="H278" t="n">
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>6150</v>
+      </c>
+      <c r="C279" t="n">
+        <v>6150</v>
+      </c>
+      <c r="D279" t="n">
+        <v>6150</v>
+      </c>
+      <c r="E279" t="n">
+        <v>6150</v>
+      </c>
+      <c r="F279" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="G279" t="n">
+        <v>-15362.7979426631</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>6155</v>
+      </c>
+      <c r="C280" t="n">
+        <v>6155</v>
+      </c>
+      <c r="D280" t="n">
+        <v>6155</v>
+      </c>
+      <c r="E280" t="n">
+        <v>6155</v>
+      </c>
+      <c r="F280" t="n">
+        <v>200</v>
+      </c>
+      <c r="G280" t="n">
+        <v>-15162.7979426631</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>6160</v>
+      </c>
+      <c r="C281" t="n">
+        <v>6160</v>
+      </c>
+      <c r="D281" t="n">
+        <v>6160</v>
+      </c>
+      <c r="E281" t="n">
+        <v>6145</v>
+      </c>
+      <c r="F281" t="n">
+        <v>578.175</v>
+      </c>
+      <c r="G281" t="n">
+        <v>-14584.6229426631</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>6160</v>
+      </c>
+      <c r="C282" t="n">
+        <v>6160</v>
+      </c>
+      <c r="D282" t="n">
+        <v>6160</v>
+      </c>
+      <c r="E282" t="n">
+        <v>6140</v>
+      </c>
+      <c r="F282" t="n">
+        <v>1005.83</v>
+      </c>
+      <c r="G282" t="n">
+        <v>-14584.6229426631</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>6160</v>
+      </c>
+      <c r="C283" t="n">
+        <v>6160</v>
+      </c>
+      <c r="D283" t="n">
+        <v>6160</v>
+      </c>
+      <c r="E283" t="n">
+        <v>6160</v>
+      </c>
+      <c r="F283" t="n">
+        <v>3.8203</v>
+      </c>
+      <c r="G283" t="n">
+        <v>-14584.6229426631</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>6155</v>
+      </c>
+      <c r="C284" t="n">
+        <v>6155</v>
+      </c>
+      <c r="D284" t="n">
+        <v>6155</v>
+      </c>
+      <c r="E284" t="n">
+        <v>6155</v>
+      </c>
+      <c r="F284" t="n">
+        <v>12.2683</v>
+      </c>
+      <c r="G284" t="n">
+        <v>-14596.8912426631</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>6155</v>
+      </c>
+      <c r="C285" t="n">
+        <v>6155</v>
+      </c>
+      <c r="D285" t="n">
+        <v>6155</v>
+      </c>
+      <c r="E285" t="n">
+        <v>6155</v>
+      </c>
+      <c r="F285" t="n">
+        <v>333.5413</v>
+      </c>
+      <c r="G285" t="n">
+        <v>-14596.8912426631</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>6155</v>
+      </c>
+      <c r="C286" t="n">
+        <v>6155</v>
+      </c>
+      <c r="D286" t="n">
+        <v>6155</v>
+      </c>
+      <c r="E286" t="n">
+        <v>6155</v>
+      </c>
+      <c r="F286" t="n">
+        <v>0.3956</v>
+      </c>
+      <c r="G286" t="n">
+        <v>-14596.8912426631</v>
+      </c>
+      <c r="H286" t="n">
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>6155</v>
+      </c>
+      <c r="C287" t="n">
+        <v>6155</v>
+      </c>
+      <c r="D287" t="n">
+        <v>6155</v>
+      </c>
+      <c r="E287" t="n">
+        <v>6155</v>
+      </c>
+      <c r="F287" t="n">
+        <v>72.459</v>
+      </c>
+      <c r="G287" t="n">
+        <v>-14596.8912426631</v>
+      </c>
+      <c r="H287" t="n">
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>6160</v>
+      </c>
+      <c r="C288" t="n">
+        <v>6150</v>
+      </c>
+      <c r="D288" t="n">
+        <v>6160</v>
+      </c>
+      <c r="E288" t="n">
+        <v>6150</v>
+      </c>
+      <c r="F288" t="n">
+        <v>190.8248</v>
+      </c>
+      <c r="G288" t="n">
+        <v>-14787.7160426631</v>
+      </c>
+      <c r="H288" t="n">
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>6160</v>
+      </c>
+      <c r="C289" t="n">
+        <v>6160</v>
+      </c>
+      <c r="D289" t="n">
+        <v>6160</v>
+      </c>
+      <c r="E289" t="n">
+        <v>6160</v>
+      </c>
+      <c r="F289" t="n">
+        <v>48.8887</v>
+      </c>
+      <c r="G289" t="n">
+        <v>-14738.8273426631</v>
+      </c>
+      <c r="H289" t="n">
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>6160</v>
+      </c>
+      <c r="C290" t="n">
+        <v>6160</v>
+      </c>
+      <c r="D290" t="n">
+        <v>6160</v>
+      </c>
+      <c r="E290" t="n">
+        <v>6150</v>
+      </c>
+      <c r="F290" t="n">
+        <v>446.6012</v>
+      </c>
+      <c r="G290" t="n">
+        <v>-14738.8273426631</v>
+      </c>
+      <c r="H290" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>6160</v>
+      </c>
+      <c r="C291" t="n">
+        <v>6145</v>
+      </c>
+      <c r="D291" t="n">
+        <v>6160</v>
+      </c>
+      <c r="E291" t="n">
+        <v>6145</v>
+      </c>
+      <c r="F291" t="n">
+        <v>23.3784</v>
+      </c>
+      <c r="G291" t="n">
+        <v>-14762.2057426631</v>
+      </c>
+      <c r="H291" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>6145</v>
+      </c>
+      <c r="C292" t="n">
+        <v>6145</v>
+      </c>
+      <c r="D292" t="n">
+        <v>6145</v>
+      </c>
+      <c r="E292" t="n">
+        <v>6135</v>
+      </c>
+      <c r="F292" t="n">
+        <v>203</v>
+      </c>
+      <c r="G292" t="n">
+        <v>-14762.2057426631</v>
+      </c>
+      <c r="H292" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>6145</v>
+      </c>
+      <c r="C293" t="n">
+        <v>6145</v>
+      </c>
+      <c r="D293" t="n">
+        <v>6145</v>
+      </c>
+      <c r="E293" t="n">
+        <v>6145</v>
+      </c>
+      <c r="F293" t="n">
+        <v>30.3863</v>
+      </c>
+      <c r="G293" t="n">
+        <v>-14762.2057426631</v>
+      </c>
+      <c r="H293" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>6145</v>
+      </c>
+      <c r="C294" t="n">
+        <v>6135</v>
+      </c>
+      <c r="D294" t="n">
+        <v>6145</v>
+      </c>
+      <c r="E294" t="n">
+        <v>6135</v>
+      </c>
+      <c r="F294" t="n">
+        <v>579.8988000000001</v>
+      </c>
+      <c r="G294" t="n">
+        <v>-15342.1045426631</v>
+      </c>
+      <c r="H294" t="n">
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>6140</v>
+      </c>
+      <c r="C295" t="n">
+        <v>6135</v>
+      </c>
+      <c r="D295" t="n">
+        <v>6140</v>
+      </c>
+      <c r="E295" t="n">
+        <v>6135</v>
+      </c>
+      <c r="F295" t="n">
+        <v>22.7345</v>
+      </c>
+      <c r="G295" t="n">
+        <v>-15342.1045426631</v>
+      </c>
+      <c r="H295" t="n">
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>6130</v>
+      </c>
+      <c r="C296" t="n">
+        <v>6130</v>
+      </c>
+      <c r="D296" t="n">
+        <v>6130</v>
+      </c>
+      <c r="E296" t="n">
+        <v>6130</v>
+      </c>
+      <c r="F296" t="n">
+        <v>9.4529</v>
+      </c>
+      <c r="G296" t="n">
+        <v>-15351.5574426631</v>
+      </c>
+      <c r="H296" t="n">
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>6125</v>
+      </c>
+      <c r="C297" t="n">
+        <v>6125</v>
+      </c>
+      <c r="D297" t="n">
+        <v>6125</v>
+      </c>
+      <c r="E297" t="n">
+        <v>6125</v>
+      </c>
+      <c r="F297" t="n">
+        <v>9.460599999999999</v>
+      </c>
+      <c r="G297" t="n">
+        <v>-15361.0180426631</v>
+      </c>
+      <c r="H297" t="n">
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>6125</v>
+      </c>
+      <c r="C298" t="n">
+        <v>6125</v>
+      </c>
+      <c r="D298" t="n">
+        <v>6125</v>
+      </c>
+      <c r="E298" t="n">
+        <v>6125</v>
+      </c>
+      <c r="F298" t="n">
+        <v>4.1874</v>
+      </c>
+      <c r="G298" t="n">
+        <v>-15361.0180426631</v>
+      </c>
+      <c r="H298" t="n">
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>6125</v>
+      </c>
+      <c r="C299" t="n">
+        <v>6125</v>
+      </c>
+      <c r="D299" t="n">
+        <v>6125</v>
+      </c>
+      <c r="E299" t="n">
+        <v>6125</v>
+      </c>
+      <c r="F299" t="n">
+        <v>16.6549</v>
+      </c>
+      <c r="G299" t="n">
+        <v>-15361.0180426631</v>
+      </c>
+      <c r="H299" t="n">
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C300" t="n">
+        <v>6120</v>
+      </c>
+      <c r="D300" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E300" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F300" t="n">
+        <v>9.468299999999999</v>
+      </c>
+      <c r="G300" t="n">
+        <v>-15370.4863426631</v>
+      </c>
+      <c r="H300" t="n">
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C301" t="n">
+        <v>6120</v>
+      </c>
+      <c r="D301" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E301" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F301" t="n">
+        <v>9.468299999999999</v>
+      </c>
+      <c r="G301" t="n">
+        <v>-15370.4863426631</v>
+      </c>
+      <c r="H301" t="n">
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>6120</v>
+      </c>
+      <c r="C302" t="n">
+        <v>6120</v>
+      </c>
+      <c r="D302" t="n">
+        <v>6120</v>
+      </c>
+      <c r="E302" t="n">
+        <v>6120</v>
+      </c>
+      <c r="F302" t="n">
+        <v>9.468299999999999</v>
+      </c>
+      <c r="G302" t="n">
+        <v>-15370.4863426631</v>
+      </c>
+      <c r="H302" t="n">
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>6115</v>
+      </c>
+      <c r="C303" t="n">
+        <v>6115</v>
+      </c>
+      <c r="D303" t="n">
+        <v>6115</v>
+      </c>
+      <c r="E303" t="n">
+        <v>6115</v>
+      </c>
+      <c r="F303" t="n">
+        <v>9.476100000000001</v>
+      </c>
+      <c r="G303" t="n">
+        <v>-15379.9624426631</v>
+      </c>
+      <c r="H303" t="n">
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C304" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D304" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E304" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F304" t="n">
+        <v>16.6549</v>
+      </c>
+      <c r="G304" t="n">
+        <v>-15396.6173426631</v>
+      </c>
+      <c r="H304" t="n">
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>6110</v>
+      </c>
+      <c r="C305" t="n">
+        <v>6110</v>
+      </c>
+      <c r="D305" t="n">
+        <v>6110</v>
+      </c>
+      <c r="E305" t="n">
+        <v>6110</v>
+      </c>
+      <c r="F305" t="n">
+        <v>9.4838</v>
+      </c>
+      <c r="G305" t="n">
+        <v>-15396.6173426631</v>
+      </c>
+      <c r="H305" t="n">
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C306" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D306" t="n">
+        <v>6115</v>
+      </c>
+      <c r="E306" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F306" t="n">
+        <v>102.1856</v>
+      </c>
+      <c r="G306" t="n">
+        <v>-15498.8029426631</v>
+      </c>
+      <c r="H306" t="n">
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C307" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D307" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E307" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F307" t="n">
+        <v>96.13939999999999</v>
+      </c>
+      <c r="G307" t="n">
+        <v>-15402.6635426631</v>
+      </c>
+      <c r="H307" t="n">
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C308" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D308" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E308" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F308" t="n">
+        <v>9.4916</v>
+      </c>
+      <c r="G308" t="n">
+        <v>-15402.6635426631</v>
+      </c>
+      <c r="H308" t="n">
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C309" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D309" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E309" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F309" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G309" t="n">
+        <v>-15402.6635426631</v>
+      </c>
+      <c r="H309" t="n">
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C310" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D310" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E310" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F310" t="n">
+        <v>9.4916</v>
+      </c>
+      <c r="G310" t="n">
+        <v>-15402.6635426631</v>
+      </c>
+      <c r="H310" t="n">
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C311" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D311" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E311" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F311" t="n">
+        <v>9.4994</v>
+      </c>
+      <c r="G311" t="n">
+        <v>-15412.1629426631</v>
+      </c>
+      <c r="H311" t="n">
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C312" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D312" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E312" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F312" t="n">
+        <v>81.95999999999999</v>
+      </c>
+      <c r="G312" t="n">
+        <v>-15412.1629426631</v>
+      </c>
+      <c r="H312" t="n">
+        <v>1</v>
+      </c>
+      <c r="I312" t="n">
+        <v>6100</v>
+      </c>
+      <c r="J312" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>6105</v>
+      </c>
+      <c r="C313" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D313" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E313" t="n">
+        <v>6105</v>
+      </c>
+      <c r="F313" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="G313" t="n">
+        <v>-15406.9629426631</v>
+      </c>
+      <c r="H313" t="n">
+        <v>1</v>
+      </c>
+      <c r="I313" t="n">
+        <v>6100</v>
+      </c>
+      <c r="J313" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C314" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D314" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E314" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F314" t="n">
+        <v>9.4994</v>
+      </c>
+      <c r="G314" t="n">
+        <v>-15416.4623426631</v>
+      </c>
+      <c r="H314" t="n">
+        <v>1</v>
+      </c>
+      <c r="I314" t="n">
+        <v>6105</v>
+      </c>
+      <c r="J314" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C315" t="n">
+        <v>6100</v>
+      </c>
+      <c r="D315" t="n">
+        <v>6100</v>
+      </c>
+      <c r="E315" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F315" t="n">
+        <v>9.4994</v>
+      </c>
+      <c r="G315" t="n">
+        <v>-15416.4623426631</v>
+      </c>
+      <c r="H315" t="n">
+        <v>1</v>
+      </c>
+      <c r="I315" t="n">
+        <v>6100</v>
+      </c>
+      <c r="J315" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>6100</v>
+      </c>
+      <c r="C316" t="n">
+        <v>6105</v>
+      </c>
+      <c r="D316" t="n">
+        <v>6105</v>
+      </c>
+      <c r="E316" t="n">
+        <v>6100</v>
+      </c>
+      <c r="F316" t="n">
+        <v>199</v>
+      </c>
+      <c r="G316" t="n">
+        <v>-15217.4623426631</v>
+      </c>
+      <c r="H316" t="n">
+        <v>1</v>
+      </c>
+      <c r="I316" t="n">
+        <v>6100</v>
+      </c>
+      <c r="J316" t="n">
+        <v>6100</v>
+      </c>
+      <c r="K316" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>6095</v>
-      </c>
-      <c r="C259" t="n">
-        <v>6095</v>
-      </c>
-      <c r="D259" t="n">
-        <v>6095</v>
-      </c>
-      <c r="E259" t="n">
-        <v>6095</v>
-      </c>
-      <c r="F259" t="n">
-        <v>154.5712</v>
-      </c>
-      <c r="G259" t="n">
-        <v>-15521.15909510609</v>
-      </c>
-      <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>6090</v>
-      </c>
-      <c r="J259" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>6095</v>
-      </c>
-      <c r="C260" t="n">
-        <v>6095</v>
-      </c>
-      <c r="D260" t="n">
-        <v>6095</v>
-      </c>
-      <c r="E260" t="n">
-        <v>6095</v>
-      </c>
-      <c r="F260" t="n">
-        <v>60.0743</v>
-      </c>
-      <c r="G260" t="n">
-        <v>-15521.15909510609</v>
-      </c>
-      <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>6095</v>
-      </c>
-      <c r="J260" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>6120</v>
-      </c>
-      <c r="C261" t="n">
-        <v>6120</v>
-      </c>
-      <c r="D261" t="n">
-        <v>6120</v>
-      </c>
-      <c r="E261" t="n">
-        <v>6120</v>
-      </c>
-      <c r="F261" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G261" t="n">
-        <v>-15521.05909510609</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>6095</v>
-      </c>
-      <c r="J261" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C262" t="n">
-        <v>6115</v>
-      </c>
-      <c r="D262" t="n">
-        <v>6115</v>
-      </c>
-      <c r="E262" t="n">
-        <v>6110</v>
-      </c>
-      <c r="F262" t="n">
-        <v>172.534</v>
-      </c>
-      <c r="G262" t="n">
-        <v>-15693.59309510609</v>
-      </c>
-      <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>6120</v>
-      </c>
-      <c r="J262" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>6105</v>
-      </c>
-      <c r="C263" t="n">
-        <v>6105</v>
-      </c>
-      <c r="D263" t="n">
-        <v>6105</v>
-      </c>
-      <c r="E263" t="n">
-        <v>6105</v>
-      </c>
-      <c r="F263" t="n">
-        <v>105</v>
-      </c>
-      <c r="G263" t="n">
-        <v>-15798.59309510609</v>
-      </c>
-      <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>6115</v>
-      </c>
-      <c r="J263" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>6120</v>
-      </c>
-      <c r="C264" t="n">
-        <v>6120</v>
-      </c>
-      <c r="D264" t="n">
-        <v>6120</v>
-      </c>
-      <c r="E264" t="n">
-        <v>6120</v>
-      </c>
-      <c r="F264" t="n">
-        <v>30</v>
-      </c>
-      <c r="G264" t="n">
-        <v>-15768.59309510609</v>
-      </c>
-      <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J264" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C265" t="n">
-        <v>6105</v>
-      </c>
-      <c r="D265" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E265" t="n">
-        <v>6105</v>
-      </c>
-      <c r="F265" t="n">
-        <v>30</v>
-      </c>
-      <c r="G265" t="n">
-        <v>-15798.59309510609</v>
-      </c>
-      <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>6120</v>
-      </c>
-      <c r="J265" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>6125</v>
-      </c>
-      <c r="C266" t="n">
-        <v>6125</v>
-      </c>
-      <c r="D266" t="n">
-        <v>6125</v>
-      </c>
-      <c r="E266" t="n">
-        <v>6125</v>
-      </c>
-      <c r="F266" t="n">
-        <v>6.392</v>
-      </c>
-      <c r="G266" t="n">
-        <v>-15792.20109510609</v>
-      </c>
-      <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J266" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>6115</v>
-      </c>
-      <c r="C267" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D267" t="n">
-        <v>6135</v>
-      </c>
-      <c r="E267" t="n">
-        <v>6115</v>
-      </c>
-      <c r="F267" t="n">
-        <v>289.5046</v>
-      </c>
-      <c r="G267" t="n">
-        <v>-15502.69649510609</v>
-      </c>
-      <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>6125</v>
-      </c>
-      <c r="J267" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>6130</v>
-      </c>
-      <c r="C268" t="n">
-        <v>6130</v>
-      </c>
-      <c r="D268" t="n">
-        <v>6130</v>
-      </c>
-      <c r="E268" t="n">
-        <v>6130</v>
-      </c>
-      <c r="F268" t="n">
-        <v>81.0766</v>
-      </c>
-      <c r="G268" t="n">
-        <v>-15583.77309510609</v>
-      </c>
-      <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>6135</v>
-      </c>
-      <c r="J268" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>6140</v>
-      </c>
-      <c r="C269" t="n">
-        <v>6140</v>
-      </c>
-      <c r="D269" t="n">
-        <v>6140</v>
-      </c>
-      <c r="E269" t="n">
-        <v>6140</v>
-      </c>
-      <c r="F269" t="n">
-        <v>39.91775244299674</v>
-      </c>
-      <c r="G269" t="n">
-        <v>-15543.8553426631</v>
-      </c>
-      <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>6130</v>
-      </c>
-      <c r="J269" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>6135</v>
-      </c>
-      <c r="C270" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D270" t="n">
-        <v>6135</v>
-      </c>
-      <c r="E270" t="n">
-        <v>6135</v>
-      </c>
-      <c r="F270" t="n">
-        <v>4.1193</v>
-      </c>
-      <c r="G270" t="n">
-        <v>-15547.9746426631</v>
-      </c>
-      <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>6140</v>
-      </c>
-      <c r="J270" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>6135</v>
-      </c>
-      <c r="C271" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D271" t="n">
-        <v>6135</v>
-      </c>
-      <c r="E271" t="n">
-        <v>6135</v>
-      </c>
-      <c r="F271" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="G271" t="n">
-        <v>-15547.9746426631</v>
-      </c>
-      <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>6135</v>
-      </c>
-      <c r="J271" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>6115</v>
-      </c>
-      <c r="C272" t="n">
-        <v>6115</v>
-      </c>
-      <c r="D272" t="n">
-        <v>6115</v>
-      </c>
-      <c r="E272" t="n">
-        <v>6115</v>
-      </c>
-      <c r="F272" t="n">
-        <v>23.8268</v>
-      </c>
-      <c r="G272" t="n">
-        <v>-15571.8014426631</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>6120</v>
-      </c>
-      <c r="C273" t="n">
-        <v>6130</v>
-      </c>
-      <c r="D273" t="n">
-        <v>6130</v>
-      </c>
-      <c r="E273" t="n">
-        <v>6120</v>
-      </c>
-      <c r="F273" t="n">
-        <v>462.1546</v>
-      </c>
-      <c r="G273" t="n">
-        <v>-15109.6468426631</v>
-      </c>
-      <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>6115</v>
-      </c>
-      <c r="J273" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>6120</v>
-      </c>
-      <c r="C274" t="n">
-        <v>6120</v>
-      </c>
-      <c r="D274" t="n">
-        <v>6120</v>
-      </c>
-      <c r="E274" t="n">
-        <v>6120</v>
-      </c>
-      <c r="F274" t="n">
-        <v>58.8411</v>
-      </c>
-      <c r="G274" t="n">
-        <v>-15168.4879426631</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>6120</v>
-      </c>
-      <c r="C275" t="n">
-        <v>6115</v>
-      </c>
-      <c r="D275" t="n">
-        <v>6120</v>
-      </c>
-      <c r="E275" t="n">
-        <v>6115</v>
-      </c>
-      <c r="F275" t="n">
-        <v>120</v>
-      </c>
-      <c r="G275" t="n">
-        <v>-15288.4879426631</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>6135</v>
-      </c>
-      <c r="C276" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D276" t="n">
-        <v>6135</v>
-      </c>
-      <c r="E276" t="n">
-        <v>6135</v>
-      </c>
-      <c r="F276" t="n">
-        <v>48.89</v>
-      </c>
-      <c r="G276" t="n">
-        <v>-15239.5979426631</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>6135</v>
-      </c>
-      <c r="C277" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D277" t="n">
-        <v>6135</v>
-      </c>
-      <c r="E277" t="n">
-        <v>6135</v>
-      </c>
-      <c r="F277" t="n">
-        <v>212</v>
-      </c>
-      <c r="G277" t="n">
-        <v>-15239.5979426631</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>6130</v>
-      </c>
-      <c r="C278" t="n">
-        <v>6130</v>
-      </c>
-      <c r="D278" t="n">
-        <v>6130</v>
-      </c>
-      <c r="E278" t="n">
-        <v>6130</v>
-      </c>
-      <c r="F278" t="n">
-        <v>125.6</v>
-      </c>
-      <c r="G278" t="n">
-        <v>-15365.1979426631</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>6150</v>
-      </c>
-      <c r="C279" t="n">
-        <v>6150</v>
-      </c>
-      <c r="D279" t="n">
-        <v>6150</v>
-      </c>
-      <c r="E279" t="n">
-        <v>6150</v>
-      </c>
-      <c r="F279" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="G279" t="n">
-        <v>-15362.7979426631</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>6155</v>
-      </c>
-      <c r="C280" t="n">
-        <v>6155</v>
-      </c>
-      <c r="D280" t="n">
-        <v>6155</v>
-      </c>
-      <c r="E280" t="n">
-        <v>6155</v>
-      </c>
-      <c r="F280" t="n">
-        <v>200</v>
-      </c>
-      <c r="G280" t="n">
-        <v>-15162.7979426631</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>6160</v>
-      </c>
-      <c r="C281" t="n">
-        <v>6160</v>
-      </c>
-      <c r="D281" t="n">
-        <v>6160</v>
-      </c>
-      <c r="E281" t="n">
-        <v>6145</v>
-      </c>
-      <c r="F281" t="n">
-        <v>578.175</v>
-      </c>
-      <c r="G281" t="n">
-        <v>-14584.6229426631</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>6160</v>
-      </c>
-      <c r="C282" t="n">
-        <v>6160</v>
-      </c>
-      <c r="D282" t="n">
-        <v>6160</v>
-      </c>
-      <c r="E282" t="n">
-        <v>6140</v>
-      </c>
-      <c r="F282" t="n">
-        <v>1005.83</v>
-      </c>
-      <c r="G282" t="n">
-        <v>-14584.6229426631</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>6160</v>
-      </c>
-      <c r="C283" t="n">
-        <v>6160</v>
-      </c>
-      <c r="D283" t="n">
-        <v>6160</v>
-      </c>
-      <c r="E283" t="n">
-        <v>6160</v>
-      </c>
-      <c r="F283" t="n">
-        <v>3.8203</v>
-      </c>
-      <c r="G283" t="n">
-        <v>-14584.6229426631</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>6155</v>
-      </c>
-      <c r="C284" t="n">
-        <v>6155</v>
-      </c>
-      <c r="D284" t="n">
-        <v>6155</v>
-      </c>
-      <c r="E284" t="n">
-        <v>6155</v>
-      </c>
-      <c r="F284" t="n">
-        <v>12.2683</v>
-      </c>
-      <c r="G284" t="n">
-        <v>-14596.8912426631</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>6155</v>
-      </c>
-      <c r="C285" t="n">
-        <v>6155</v>
-      </c>
-      <c r="D285" t="n">
-        <v>6155</v>
-      </c>
-      <c r="E285" t="n">
-        <v>6155</v>
-      </c>
-      <c r="F285" t="n">
-        <v>333.5413</v>
-      </c>
-      <c r="G285" t="n">
-        <v>-14596.8912426631</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>6155</v>
-      </c>
-      <c r="C286" t="n">
-        <v>6155</v>
-      </c>
-      <c r="D286" t="n">
-        <v>6155</v>
-      </c>
-      <c r="E286" t="n">
-        <v>6155</v>
-      </c>
-      <c r="F286" t="n">
-        <v>0.3956</v>
-      </c>
-      <c r="G286" t="n">
-        <v>-14596.8912426631</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
-        <v>285</v>
-      </c>
-      <c r="B287" t="n">
-        <v>6155</v>
-      </c>
-      <c r="C287" t="n">
-        <v>6155</v>
-      </c>
-      <c r="D287" t="n">
-        <v>6155</v>
-      </c>
-      <c r="E287" t="n">
-        <v>6155</v>
-      </c>
-      <c r="F287" t="n">
-        <v>72.459</v>
-      </c>
-      <c r="G287" t="n">
-        <v>-14596.8912426631</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
-        <v>286</v>
-      </c>
-      <c r="B288" t="n">
-        <v>6160</v>
-      </c>
-      <c r="C288" t="n">
-        <v>6150</v>
-      </c>
-      <c r="D288" t="n">
-        <v>6160</v>
-      </c>
-      <c r="E288" t="n">
-        <v>6150</v>
-      </c>
-      <c r="F288" t="n">
-        <v>190.8248</v>
-      </c>
-      <c r="G288" t="n">
-        <v>-14787.7160426631</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
-        <v>287</v>
-      </c>
-      <c r="B289" t="n">
-        <v>6160</v>
-      </c>
-      <c r="C289" t="n">
-        <v>6160</v>
-      </c>
-      <c r="D289" t="n">
-        <v>6160</v>
-      </c>
-      <c r="E289" t="n">
-        <v>6160</v>
-      </c>
-      <c r="F289" t="n">
-        <v>48.8887</v>
-      </c>
-      <c r="G289" t="n">
-        <v>-14738.8273426631</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
-      <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
-        <v>288</v>
-      </c>
-      <c r="B290" t="n">
-        <v>6160</v>
-      </c>
-      <c r="C290" t="n">
-        <v>6160</v>
-      </c>
-      <c r="D290" t="n">
-        <v>6160</v>
-      </c>
-      <c r="E290" t="n">
-        <v>6150</v>
-      </c>
-      <c r="F290" t="n">
-        <v>446.6012</v>
-      </c>
-      <c r="G290" t="n">
-        <v>-14738.8273426631</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
-        <v>289</v>
-      </c>
-      <c r="B291" t="n">
-        <v>6160</v>
-      </c>
-      <c r="C291" t="n">
-        <v>6145</v>
-      </c>
-      <c r="D291" t="n">
-        <v>6160</v>
-      </c>
-      <c r="E291" t="n">
-        <v>6145</v>
-      </c>
-      <c r="F291" t="n">
-        <v>23.3784</v>
-      </c>
-      <c r="G291" t="n">
-        <v>-14762.2057426631</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
-      <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
-        <v>290</v>
-      </c>
-      <c r="B292" t="n">
-        <v>6145</v>
-      </c>
-      <c r="C292" t="n">
-        <v>6145</v>
-      </c>
-      <c r="D292" t="n">
-        <v>6145</v>
-      </c>
-      <c r="E292" t="n">
-        <v>6135</v>
-      </c>
-      <c r="F292" t="n">
-        <v>203</v>
-      </c>
-      <c r="G292" t="n">
-        <v>-14762.2057426631</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
-      <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
-        <v>291</v>
-      </c>
-      <c r="B293" t="n">
-        <v>6145</v>
-      </c>
-      <c r="C293" t="n">
-        <v>6145</v>
-      </c>
-      <c r="D293" t="n">
-        <v>6145</v>
-      </c>
-      <c r="E293" t="n">
-        <v>6145</v>
-      </c>
-      <c r="F293" t="n">
-        <v>30.3863</v>
-      </c>
-      <c r="G293" t="n">
-        <v>-14762.2057426631</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
-      <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="B294" t="n">
-        <v>6145</v>
-      </c>
-      <c r="C294" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D294" t="n">
-        <v>6145</v>
-      </c>
-      <c r="E294" t="n">
-        <v>6135</v>
-      </c>
-      <c r="F294" t="n">
-        <v>579.8988000000001</v>
-      </c>
-      <c r="G294" t="n">
-        <v>-15342.1045426631</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
-      <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
-        <v>293</v>
-      </c>
-      <c r="B295" t="n">
-        <v>6140</v>
-      </c>
-      <c r="C295" t="n">
-        <v>6135</v>
-      </c>
-      <c r="D295" t="n">
-        <v>6140</v>
-      </c>
-      <c r="E295" t="n">
-        <v>6135</v>
-      </c>
-      <c r="F295" t="n">
-        <v>22.7345</v>
-      </c>
-      <c r="G295" t="n">
-        <v>-15342.1045426631</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
-      <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
-        <v>294</v>
-      </c>
-      <c r="B296" t="n">
-        <v>6130</v>
-      </c>
-      <c r="C296" t="n">
-        <v>6130</v>
-      </c>
-      <c r="D296" t="n">
-        <v>6130</v>
-      </c>
-      <c r="E296" t="n">
-        <v>6130</v>
-      </c>
-      <c r="F296" t="n">
-        <v>9.4529</v>
-      </c>
-      <c r="G296" t="n">
-        <v>-15351.5574426631</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
-        <v>295</v>
-      </c>
-      <c r="B297" t="n">
-        <v>6125</v>
-      </c>
-      <c r="C297" t="n">
-        <v>6125</v>
-      </c>
-      <c r="D297" t="n">
-        <v>6125</v>
-      </c>
-      <c r="E297" t="n">
-        <v>6125</v>
-      </c>
-      <c r="F297" t="n">
-        <v>9.460599999999999</v>
-      </c>
-      <c r="G297" t="n">
-        <v>-15361.0180426631</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
-      <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
-        <v>296</v>
-      </c>
-      <c r="B298" t="n">
-        <v>6125</v>
-      </c>
-      <c r="C298" t="n">
-        <v>6125</v>
-      </c>
-      <c r="D298" t="n">
-        <v>6125</v>
-      </c>
-      <c r="E298" t="n">
-        <v>6125</v>
-      </c>
-      <c r="F298" t="n">
-        <v>4.1874</v>
-      </c>
-      <c r="G298" t="n">
-        <v>-15361.0180426631</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
-      <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
-        <v>297</v>
-      </c>
-      <c r="B299" t="n">
-        <v>6125</v>
-      </c>
-      <c r="C299" t="n">
-        <v>6125</v>
-      </c>
-      <c r="D299" t="n">
-        <v>6125</v>
-      </c>
-      <c r="E299" t="n">
-        <v>6125</v>
-      </c>
-      <c r="F299" t="n">
-        <v>16.6549</v>
-      </c>
-      <c r="G299" t="n">
-        <v>-15361.0180426631</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
-      <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
-        <v>298</v>
-      </c>
-      <c r="B300" t="n">
-        <v>6120</v>
-      </c>
-      <c r="C300" t="n">
-        <v>6120</v>
-      </c>
-      <c r="D300" t="n">
-        <v>6120</v>
-      </c>
-      <c r="E300" t="n">
-        <v>6120</v>
-      </c>
-      <c r="F300" t="n">
-        <v>9.468299999999999</v>
-      </c>
-      <c r="G300" t="n">
-        <v>-15370.4863426631</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
-      <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
-        <v>299</v>
-      </c>
-      <c r="B301" t="n">
-        <v>6120</v>
-      </c>
-      <c r="C301" t="n">
-        <v>6120</v>
-      </c>
-      <c r="D301" t="n">
-        <v>6120</v>
-      </c>
-      <c r="E301" t="n">
-        <v>6120</v>
-      </c>
-      <c r="F301" t="n">
-        <v>9.468299999999999</v>
-      </c>
-      <c r="G301" t="n">
-        <v>-15370.4863426631</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
-      <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
-        <v>300</v>
-      </c>
-      <c r="B302" t="n">
-        <v>6120</v>
-      </c>
-      <c r="C302" t="n">
-        <v>6120</v>
-      </c>
-      <c r="D302" t="n">
-        <v>6120</v>
-      </c>
-      <c r="E302" t="n">
-        <v>6120</v>
-      </c>
-      <c r="F302" t="n">
-        <v>9.468299999999999</v>
-      </c>
-      <c r="G302" t="n">
-        <v>-15370.4863426631</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
-      <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="n">
-        <v>6115</v>
-      </c>
-      <c r="C303" t="n">
-        <v>6115</v>
-      </c>
-      <c r="D303" t="n">
-        <v>6115</v>
-      </c>
-      <c r="E303" t="n">
-        <v>6115</v>
-      </c>
-      <c r="F303" t="n">
-        <v>9.476100000000001</v>
-      </c>
-      <c r="G303" t="n">
-        <v>-15379.9624426631</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
-      <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C304" t="n">
-        <v>6110</v>
-      </c>
-      <c r="D304" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E304" t="n">
-        <v>6110</v>
-      </c>
-      <c r="F304" t="n">
-        <v>16.6549</v>
-      </c>
-      <c r="G304" t="n">
-        <v>-15396.6173426631</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
-      <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
-    </row>
-    <row r="305">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="n">
-        <v>6110</v>
-      </c>
-      <c r="C305" t="n">
-        <v>6110</v>
-      </c>
-      <c r="D305" t="n">
-        <v>6110</v>
-      </c>
-      <c r="E305" t="n">
-        <v>6110</v>
-      </c>
-      <c r="F305" t="n">
-        <v>9.4838</v>
-      </c>
-      <c r="G305" t="n">
-        <v>-15396.6173426631</v>
-      </c>
-      <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>6110</v>
-      </c>
-      <c r="J305" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
-    </row>
-    <row r="306">
-      <c r="A306" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="B306" t="n">
-        <v>6105</v>
-      </c>
-      <c r="C306" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D306" t="n">
-        <v>6115</v>
-      </c>
-      <c r="E306" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F306" t="n">
-        <v>102.1856</v>
-      </c>
-      <c r="G306" t="n">
-        <v>-15498.8029426631</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>6110</v>
-      </c>
-      <c r="J306" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
-    </row>
-    <row r="307">
-      <c r="A307" s="1" t="n">
-        <v>305</v>
-      </c>
-      <c r="B307" t="n">
-        <v>6105</v>
-      </c>
-      <c r="C307" t="n">
-        <v>6105</v>
-      </c>
-      <c r="D307" t="n">
-        <v>6105</v>
-      </c>
-      <c r="E307" t="n">
-        <v>6105</v>
-      </c>
-      <c r="F307" t="n">
-        <v>96.13939999999999</v>
-      </c>
-      <c r="G307" t="n">
-        <v>-15402.6635426631</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>6100</v>
-      </c>
-      <c r="J307" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
-    </row>
-    <row r="308">
-      <c r="A308" s="1" t="n">
-        <v>306</v>
-      </c>
-      <c r="B308" t="n">
-        <v>6105</v>
-      </c>
-      <c r="C308" t="n">
-        <v>6105</v>
-      </c>
-      <c r="D308" t="n">
-        <v>6105</v>
-      </c>
-      <c r="E308" t="n">
-        <v>6105</v>
-      </c>
-      <c r="F308" t="n">
-        <v>9.4916</v>
-      </c>
-      <c r="G308" t="n">
-        <v>-15402.6635426631</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J308" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
-    </row>
-    <row r="309">
-      <c r="A309" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="B309" t="n">
-        <v>6105</v>
-      </c>
-      <c r="C309" t="n">
-        <v>6105</v>
-      </c>
-      <c r="D309" t="n">
-        <v>6105</v>
-      </c>
-      <c r="E309" t="n">
-        <v>6105</v>
-      </c>
-      <c r="F309" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="G309" t="n">
-        <v>-15402.6635426631</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J309" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
-    </row>
-    <row r="310">
-      <c r="A310" s="1" t="n">
-        <v>308</v>
-      </c>
-      <c r="B310" t="n">
-        <v>6105</v>
-      </c>
-      <c r="C310" t="n">
-        <v>6105</v>
-      </c>
-      <c r="D310" t="n">
-        <v>6105</v>
-      </c>
-      <c r="E310" t="n">
-        <v>6105</v>
-      </c>
-      <c r="F310" t="n">
-        <v>9.4916</v>
-      </c>
-      <c r="G310" t="n">
-        <v>-15402.6635426631</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J310" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
-    </row>
-    <row r="311">
-      <c r="A311" s="1" t="n">
-        <v>309</v>
-      </c>
-      <c r="B311" t="n">
-        <v>6100</v>
-      </c>
-      <c r="C311" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D311" t="n">
-        <v>6100</v>
-      </c>
-      <c r="E311" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F311" t="n">
-        <v>9.4994</v>
-      </c>
-      <c r="G311" t="n">
-        <v>-15412.1629426631</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J311" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
-    </row>
-    <row r="312">
-      <c r="A312" s="1" t="n">
-        <v>310</v>
-      </c>
-      <c r="B312" t="n">
-        <v>6100</v>
-      </c>
-      <c r="C312" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D312" t="n">
-        <v>6100</v>
-      </c>
-      <c r="E312" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F312" t="n">
-        <v>81.95999999999999</v>
-      </c>
-      <c r="G312" t="n">
-        <v>-15412.1629426631</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>6100</v>
-      </c>
-      <c r="J312" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
-    </row>
-    <row r="313">
-      <c r="A313" s="1" t="n">
-        <v>311</v>
-      </c>
-      <c r="B313" t="n">
-        <v>6105</v>
-      </c>
-      <c r="C313" t="n">
-        <v>6105</v>
-      </c>
-      <c r="D313" t="n">
-        <v>6105</v>
-      </c>
-      <c r="E313" t="n">
-        <v>6105</v>
-      </c>
-      <c r="F313" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="G313" t="n">
-        <v>-15406.9629426631</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>6100</v>
-      </c>
-      <c r="J313" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="n">
-        <v>312</v>
-      </c>
-      <c r="B314" t="n">
-        <v>6100</v>
-      </c>
-      <c r="C314" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D314" t="n">
-        <v>6100</v>
-      </c>
-      <c r="E314" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F314" t="n">
-        <v>9.4994</v>
-      </c>
-      <c r="G314" t="n">
-        <v>-15416.4623426631</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>6105</v>
-      </c>
-      <c r="J314" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
-    </row>
-    <row r="315">
-      <c r="A315" s="1" t="n">
-        <v>313</v>
-      </c>
-      <c r="B315" t="n">
-        <v>6100</v>
-      </c>
-      <c r="C315" t="n">
-        <v>6100</v>
-      </c>
-      <c r="D315" t="n">
-        <v>6100</v>
-      </c>
-      <c r="E315" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F315" t="n">
-        <v>9.4994</v>
-      </c>
-      <c r="G315" t="n">
-        <v>-15416.4623426631</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>6100</v>
-      </c>
-      <c r="J315" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
-    </row>
-    <row r="316">
-      <c r="A316" s="1" t="n">
-        <v>314</v>
-      </c>
-      <c r="B316" t="n">
-        <v>6100</v>
-      </c>
-      <c r="C316" t="n">
-        <v>6105</v>
-      </c>
-      <c r="D316" t="n">
-        <v>6105</v>
-      </c>
-      <c r="E316" t="n">
-        <v>6100</v>
-      </c>
-      <c r="F316" t="n">
-        <v>199</v>
-      </c>
-      <c r="G316" t="n">
-        <v>-15217.4623426631</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>6100</v>
-      </c>
-      <c r="J316" t="n">
-        <v>6115</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11336,7 +10884,7 @@
         <v>6105</v>
       </c>
       <c r="J317" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K317" t="inlineStr">
         <is>
@@ -11377,7 +10925,7 @@
         <v>6105</v>
       </c>
       <c r="J318" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K318" t="inlineStr">
         <is>
@@ -11418,7 +10966,7 @@
         <v>6110</v>
       </c>
       <c r="J319" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K319" t="inlineStr">
         <is>
@@ -11459,7 +11007,7 @@
         <v>6115</v>
       </c>
       <c r="J320" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K320" t="inlineStr">
         <is>
@@ -11500,7 +11048,7 @@
         <v>6110</v>
       </c>
       <c r="J321" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K321" t="inlineStr">
         <is>
@@ -11541,7 +11089,7 @@
         <v>6105</v>
       </c>
       <c r="J322" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
@@ -11582,7 +11130,7 @@
         <v>6105</v>
       </c>
       <c r="J323" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
@@ -11623,7 +11171,7 @@
         <v>6105</v>
       </c>
       <c r="J324" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K324" t="inlineStr">
         <is>
@@ -11664,7 +11212,7 @@
         <v>6105</v>
       </c>
       <c r="J325" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K325" t="inlineStr">
         <is>
@@ -11705,7 +11253,7 @@
         <v>6100</v>
       </c>
       <c r="J326" t="n">
-        <v>6115</v>
+        <v>6100</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
@@ -11718,6 +11266,6 @@
       <c r="M326" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest ETC.xlsx
+++ b/BackTest/2020-01-14 BackTest ETC.xlsx
@@ -1441,7 +1441,7 @@
         <v>286.1773021432231</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>303.9508021432231</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>403.9508021432231</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>257.0120021432231</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>307.4619021432231</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>305.9621021432231</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>365.932002143223</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>430.213502143223</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>671.4882211715631</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>941.4882211715631</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>861.4882211715631</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>887.9954211715631</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>1418.494321171563</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>1666.770721171563</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1618.770721171563</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>1773.170721171563</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1871.370721171563</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>1823.500921171563</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>1828.654621171563</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1828.654621171563</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>1841.035821171563</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>1894.819921171563</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>1874.753021171563</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>2022.709921171563</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>2026.409921171563</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>2020.109921171563</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>2126.409921171563</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>2106.409921171563</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>2308.529921171563</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>2395.896221171563</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>1259.151621171563</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>1245.173921171564</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>960.0633211715634</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>833.8633211715634</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-14126.82139510609</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-14216.76319510609</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-14286.57969510609</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-14386.62029510609</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-14387.61949510609</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-14394.09549510609</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8998,10 +8998,14 @@
         <v>-15521.05909510609</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I261" t="n">
+        <v>6095</v>
+      </c>
+      <c r="J261" t="n">
+        <v>6095</v>
+      </c>
       <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
@@ -9034,8 +9038,14 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>6095</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9067,8 +9077,14 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>6095</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10483,11 +10499,17 @@
         <v>-15498.8029426631</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
-      </c>
-      <c r="I306" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I306" t="n">
+        <v>6110</v>
+      </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10516,11 +10538,17 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
-      </c>
-      <c r="I307" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I307" t="n">
+        <v>6100</v>
+      </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -10549,11 +10577,17 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I308" t="n">
+        <v>6105</v>
+      </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -10582,11 +10616,17 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I309" t="n">
+        <v>6105</v>
+      </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -10615,11 +10655,17 @@
         <v>-15402.6635426631</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I310" t="n">
+        <v>6105</v>
+      </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -10648,11 +10694,17 @@
         <v>-15412.1629426631</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
-      </c>
-      <c r="I311" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I311" t="n">
+        <v>6105</v>
+      </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -10686,10 +10738,12 @@
       <c r="I312" t="n">
         <v>6100</v>
       </c>
-      <c r="J312" t="n">
-        <v>6100</v>
-      </c>
-      <c r="K312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -10723,12 +10777,10 @@
       <c r="I313" t="n">
         <v>6100</v>
       </c>
-      <c r="J313" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L313" t="n">
@@ -10764,12 +10816,10 @@
       <c r="I314" t="n">
         <v>6105</v>
       </c>
-      <c r="J314" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L314" t="n">
@@ -10805,10 +10855,12 @@
       <c r="I315" t="n">
         <v>6100</v>
       </c>
-      <c r="J315" t="n">
-        <v>6100</v>
-      </c>
-      <c r="K315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -10842,12 +10894,10 @@
       <c r="I316" t="n">
         <v>6100</v>
       </c>
-      <c r="J316" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L316" t="n">
@@ -10883,9 +10933,7 @@
       <c r="I317" t="n">
         <v>6105</v>
       </c>
-      <c r="J317" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10924,9 +10972,7 @@
       <c r="I318" t="n">
         <v>6105</v>
       </c>
-      <c r="J318" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10965,9 +11011,7 @@
       <c r="I319" t="n">
         <v>6110</v>
       </c>
-      <c r="J319" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11006,9 +11050,7 @@
       <c r="I320" t="n">
         <v>6115</v>
       </c>
-      <c r="J320" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11047,9 +11089,7 @@
       <c r="I321" t="n">
         <v>6110</v>
       </c>
-      <c r="J321" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11088,9 +11128,7 @@
       <c r="I322" t="n">
         <v>6105</v>
       </c>
-      <c r="J322" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11129,9 +11167,7 @@
       <c r="I323" t="n">
         <v>6105</v>
       </c>
-      <c r="J323" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11170,9 +11206,7 @@
       <c r="I324" t="n">
         <v>6105</v>
       </c>
-      <c r="J324" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11211,9 +11245,7 @@
       <c r="I325" t="n">
         <v>6105</v>
       </c>
-      <c r="J325" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11252,9 +11284,7 @@
       <c r="I326" t="n">
         <v>6100</v>
       </c>
-      <c r="J326" t="n">
-        <v>6100</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>

--- a/BackTest/2020-01-14 BackTest ETC.xlsx
+++ b/BackTest/2020-01-14 BackTest ETC.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M326"/>
+  <dimension ref="A1:L326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>75.5428</v>
       </c>
       <c r="G2" t="n">
-        <v>-1000.975</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>61.37399278768233</v>
       </c>
       <c r="G3" t="n">
-        <v>-939.6010072123172</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>36.025</v>
       </c>
       <c r="G4" t="n">
-        <v>-939.6010072123172</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>0.3206</v>
       </c>
       <c r="G5" t="n">
-        <v>-939.9216072123172</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>-930.2216072123172</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>18.052</v>
       </c>
       <c r="G7" t="n">
-        <v>-948.2736072123172</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>1.9468</v>
       </c>
       <c r="G8" t="n">
-        <v>-950.2204072123172</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>9.699999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>-959.9204072123173</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>10.9625</v>
       </c>
       <c r="G10" t="n">
-        <v>-959.9204072123173</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>314.5465</v>
       </c>
       <c r="G11" t="n">
-        <v>-959.9204072123173</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>567.4017848657445</v>
       </c>
       <c r="G12" t="n">
-        <v>-392.5186223465728</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>98.8</v>
       </c>
       <c r="G13" t="n">
-        <v>-491.3186223465728</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>7.4159</v>
       </c>
       <c r="G14" t="n">
-        <v>-498.7345223465728</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>4.9</v>
       </c>
       <c r="G15" t="n">
-        <v>-493.8345223465728</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>101.6</v>
       </c>
       <c r="G16" t="n">
-        <v>-595.4345223465729</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>46.1557</v>
       </c>
       <c r="G17" t="n">
-        <v>-549.2788223465728</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>268.5</v>
       </c>
       <c r="G18" t="n">
-        <v>-280.7788223465728</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>3.6852</v>
       </c>
       <c r="G19" t="n">
-        <v>-284.4640223465728</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>407.7929</v>
       </c>
       <c r="G20" t="n">
-        <v>123.3288776534271</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>398.2</v>
       </c>
       <c r="G21" t="n">
-        <v>-274.8711223465729</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>128.8</v>
       </c>
       <c r="G22" t="n">
-        <v>-403.6711223465729</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>60.5465</v>
       </c>
       <c r="G23" t="n">
-        <v>-343.1246223465729</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>12.9548</v>
       </c>
       <c r="G24" t="n">
-        <v>-343.1246223465729</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>7.9586</v>
       </c>
       <c r="G25" t="n">
-        <v>-351.0832223465729</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>22.3101</v>
       </c>
       <c r="G26" t="n">
-        <v>-328.7731223465729</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>522.3607755102041</v>
       </c>
       <c r="G27" t="n">
-        <v>-328.7731223465729</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>557.6258</v>
       </c>
       <c r="G28" t="n">
-        <v>228.8526776534271</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>40.13672448979592</v>
       </c>
       <c r="G29" t="n">
-        <v>268.9894021432231</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>2.5</v>
       </c>
       <c r="G30" t="n">
-        <v>268.9894021432231</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>17.1879</v>
       </c>
       <c r="G31" t="n">
-        <v>286.1773021432231</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>34.2703</v>
       </c>
       <c r="G32" t="n">
-        <v>286.1773021432231</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,18 +1373,15 @@
         <v>17.7735</v>
       </c>
       <c r="G33" t="n">
-        <v>303.9508021432231</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1504,18 +1403,15 @@
         <v>100</v>
       </c>
       <c r="G34" t="n">
-        <v>403.9508021432231</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1537,18 +1433,15 @@
         <v>146.9388</v>
       </c>
       <c r="G35" t="n">
-        <v>257.0120021432231</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1570,18 +1463,15 @@
         <v>50.4499</v>
       </c>
       <c r="G36" t="n">
-        <v>307.4619021432231</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1603,18 +1493,15 @@
         <v>1.4998</v>
       </c>
       <c r="G37" t="n">
-        <v>305.9621021432231</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1636,18 +1523,15 @@
         <v>0.9</v>
       </c>
       <c r="G38" t="n">
-        <v>306.8621021432231</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1669,18 +1553,15 @@
         <v>25.8849</v>
       </c>
       <c r="G39" t="n">
-        <v>280.9772021432231</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1702,18 +1583,15 @@
         <v>21.6641</v>
       </c>
       <c r="G40" t="n">
-        <v>259.313102143223</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1735,18 +1613,15 @@
         <v>43.3281</v>
       </c>
       <c r="G41" t="n">
-        <v>302.641202143223</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1768,18 +1643,15 @@
         <v>71.6255</v>
       </c>
       <c r="G42" t="n">
-        <v>374.266702143223</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1801,18 +1673,15 @@
         <v>8.3347</v>
       </c>
       <c r="G43" t="n">
-        <v>365.932002143223</v>
-      </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1834,18 +1703,15 @@
         <v>47.449</v>
       </c>
       <c r="G44" t="n">
-        <v>413.381002143223</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1867,18 +1733,15 @@
         <v>16.8325</v>
       </c>
       <c r="G45" t="n">
-        <v>430.213502143223</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1900,18 +1763,15 @@
         <v>15.909</v>
       </c>
       <c r="G46" t="n">
-        <v>430.213502143223</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1933,18 +1793,15 @@
         <v>36.0012</v>
       </c>
       <c r="G47" t="n">
-        <v>430.213502143223</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1966,18 +1823,15 @@
         <v>186.1187</v>
       </c>
       <c r="G48" t="n">
-        <v>430.213502143223</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1999,18 +1853,15 @@
         <v>186.1186</v>
       </c>
       <c r="G49" t="n">
-        <v>430.213502143223</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2032,18 +1883,15 @@
         <v>61.77608097165992</v>
       </c>
       <c r="G50" t="n">
-        <v>430.213502143223</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2065,18 +1913,15 @@
         <v>209.6658190283401</v>
       </c>
       <c r="G51" t="n">
-        <v>639.8793211715631</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2098,18 +1943,15 @@
         <v>10.636</v>
       </c>
       <c r="G52" t="n">
-        <v>650.5153211715631</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2131,18 +1973,15 @@
         <v>20.9729</v>
       </c>
       <c r="G53" t="n">
-        <v>671.4882211715631</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2164,18 +2003,15 @@
         <v>124.5687</v>
       </c>
       <c r="G54" t="n">
-        <v>671.4882211715631</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2197,18 +2033,15 @@
         <v>10.8203</v>
       </c>
       <c r="G55" t="n">
-        <v>671.4882211715631</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2230,18 +2063,15 @@
         <v>64.611</v>
       </c>
       <c r="G56" t="n">
-        <v>671.4882211715631</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2263,18 +2093,15 @@
         <v>270</v>
       </c>
       <c r="G57" t="n">
-        <v>941.4882211715631</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2296,18 +2123,15 @@
         <v>80</v>
       </c>
       <c r="G58" t="n">
-        <v>861.4882211715631</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2329,18 +2153,15 @@
         <v>26.5072</v>
       </c>
       <c r="G59" t="n">
-        <v>887.9954211715631</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2362,18 +2183,15 @@
         <v>530.4989</v>
       </c>
       <c r="G60" t="n">
-        <v>1418.494321171563</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2395,18 +2213,15 @@
         <v>248.2764</v>
       </c>
       <c r="G61" t="n">
-        <v>1666.770721171563</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2428,18 +2243,15 @@
         <v>100</v>
       </c>
       <c r="G62" t="n">
-        <v>1666.770721171563</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2461,18 +2273,15 @@
         <v>48</v>
       </c>
       <c r="G63" t="n">
-        <v>1618.770721171563</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2494,18 +2303,15 @@
         <v>5.873</v>
       </c>
       <c r="G64" t="n">
-        <v>1618.770721171563</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2527,18 +2333,15 @@
         <v>154.4</v>
       </c>
       <c r="G65" t="n">
-        <v>1773.170721171563</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2560,18 +2363,15 @@
         <v>98.2</v>
       </c>
       <c r="G66" t="n">
-        <v>1871.370721171563</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2593,18 +2393,15 @@
         <v>47.8698</v>
       </c>
       <c r="G67" t="n">
-        <v>1823.500921171563</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2626,18 +2423,15 @@
         <v>5.1537</v>
       </c>
       <c r="G68" t="n">
-        <v>1828.654621171563</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2659,18 +2453,15 @@
         <v>107.5</v>
       </c>
       <c r="G69" t="n">
-        <v>1828.654621171563</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2692,18 +2483,15 @@
         <v>22.9853</v>
       </c>
       <c r="G70" t="n">
-        <v>1851.639921171563</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2725,18 +2513,15 @@
         <v>15.8198</v>
       </c>
       <c r="G71" t="n">
-        <v>1851.639921171563</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2758,18 +2543,15 @@
         <v>10.6041</v>
       </c>
       <c r="G72" t="n">
-        <v>1841.035821171563</v>
-      </c>
-      <c r="H72" t="n">
         <v>2</v>
       </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2791,18 +2573,15 @@
         <v>53.7841</v>
       </c>
       <c r="G73" t="n">
-        <v>1894.819921171563</v>
-      </c>
-      <c r="H73" t="n">
         <v>2</v>
       </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2824,18 +2603,15 @@
         <v>20.0669</v>
       </c>
       <c r="G74" t="n">
-        <v>1874.753021171563</v>
-      </c>
-      <c r="H74" t="n">
         <v>2</v>
       </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2857,18 +2633,15 @@
         <v>153.8201</v>
       </c>
       <c r="G75" t="n">
-        <v>1874.753021171563</v>
-      </c>
-      <c r="H75" t="n">
         <v>2</v>
       </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2890,18 +2663,15 @@
         <v>147.9569</v>
       </c>
       <c r="G76" t="n">
-        <v>2022.709921171563</v>
-      </c>
-      <c r="H76" t="n">
         <v>2</v>
       </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2923,18 +2693,15 @@
         <v>3.7</v>
       </c>
       <c r="G77" t="n">
-        <v>2026.409921171563</v>
-      </c>
-      <c r="H77" t="n">
         <v>2</v>
       </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2956,18 +2723,15 @@
         <v>6.3</v>
       </c>
       <c r="G78" t="n">
-        <v>2020.109921171563</v>
-      </c>
-      <c r="H78" t="n">
         <v>2</v>
       </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2989,18 +2753,15 @@
         <v>106.3</v>
       </c>
       <c r="G79" t="n">
-        <v>2126.409921171563</v>
-      </c>
-      <c r="H79" t="n">
         <v>2</v>
       </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3022,18 +2783,15 @@
         <v>20</v>
       </c>
       <c r="G80" t="n">
-        <v>2106.409921171563</v>
-      </c>
-      <c r="H80" t="n">
         <v>2</v>
       </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3055,18 +2813,15 @@
         <v>202.12</v>
       </c>
       <c r="G81" t="n">
-        <v>2308.529921171563</v>
-      </c>
-      <c r="H81" t="n">
         <v>2</v>
       </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3088,18 +2843,15 @@
         <v>87.3663</v>
       </c>
       <c r="G82" t="n">
-        <v>2395.896221171563</v>
-      </c>
-      <c r="H82" t="n">
         <v>2</v>
       </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3121,18 +2873,15 @@
         <v>1136.7446</v>
       </c>
       <c r="G83" t="n">
-        <v>1259.151621171563</v>
-      </c>
-      <c r="H83" t="n">
         <v>2</v>
       </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3154,18 +2903,15 @@
         <v>13.9777</v>
       </c>
       <c r="G84" t="n">
-        <v>1245.173921171564</v>
-      </c>
-      <c r="H84" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3187,18 +2933,15 @@
         <v>46.82</v>
       </c>
       <c r="G85" t="n">
-        <v>1245.173921171564</v>
-      </c>
-      <c r="H85" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3220,18 +2963,15 @@
         <v>204.5</v>
       </c>
       <c r="G86" t="n">
-        <v>1245.173921171564</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3253,18 +2993,15 @@
         <v>10.0106</v>
       </c>
       <c r="G87" t="n">
-        <v>1235.163321171563</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3286,18 +3023,15 @@
         <v>275.1</v>
       </c>
       <c r="G88" t="n">
-        <v>960.0633211715634</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3319,18 +3053,15 @@
         <v>126.2</v>
       </c>
       <c r="G89" t="n">
-        <v>833.8633211715634</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3352,18 +3083,15 @@
         <v>253.0163</v>
       </c>
       <c r="G90" t="n">
-        <v>833.8633211715634</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3385,18 +3113,15 @@
         <v>21.6374</v>
       </c>
       <c r="G91" t="n">
-        <v>855.5007211715633</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3418,18 +3143,15 @@
         <v>222.4046</v>
       </c>
       <c r="G92" t="n">
-        <v>1077.905321171563</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3451,18 +3173,15 @@
         <v>3.1414</v>
       </c>
       <c r="G93" t="n">
-        <v>1074.763921171563</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3484,18 +3203,15 @@
         <v>2.8273</v>
       </c>
       <c r="G94" t="n">
-        <v>1074.763921171563</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3517,18 +3233,15 @@
         <v>38.328</v>
       </c>
       <c r="G95" t="n">
-        <v>1113.091921171563</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3550,18 +3263,15 @@
         <v>42.8988</v>
       </c>
       <c r="G96" t="n">
-        <v>1113.091921171563</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3583,18 +3293,15 @@
         <v>4.8347</v>
       </c>
       <c r="G97" t="n">
-        <v>1113.091921171563</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3616,18 +3323,15 @@
         <v>4.6375</v>
       </c>
       <c r="G98" t="n">
-        <v>1113.091921171563</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3649,18 +3353,15 @@
         <v>2.0611</v>
       </c>
       <c r="G99" t="n">
-        <v>1115.153021171563</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3682,18 +3383,15 @@
         <v>191.3211</v>
       </c>
       <c r="G100" t="n">
-        <v>1115.153021171563</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3715,18 +3413,15 @@
         <v>0.5738</v>
       </c>
       <c r="G101" t="n">
-        <v>1115.726821171563</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3748,18 +3443,15 @@
         <v>0.3893890675241157</v>
       </c>
       <c r="G102" t="n">
-        <v>1115.726821171563</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3781,18 +3473,15 @@
         <v>8.364599999999999</v>
       </c>
       <c r="G103" t="n">
-        <v>1107.362221171563</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3814,18 +3503,15 @@
         <v>309.302</v>
       </c>
       <c r="G104" t="n">
-        <v>1107.362221171563</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3847,18 +3533,15 @@
         <v>4.9559</v>
       </c>
       <c r="G105" t="n">
-        <v>1107.362221171563</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3880,18 +3563,15 @@
         <v>403.9138</v>
       </c>
       <c r="G106" t="n">
-        <v>1511.276021171563</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3913,18 +3593,15 @@
         <v>183.85</v>
       </c>
       <c r="G107" t="n">
-        <v>1327.426021171563</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3946,18 +3623,15 @@
         <v>44.9299</v>
       </c>
       <c r="G108" t="n">
-        <v>1372.355921171563</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3979,18 +3653,15 @@
         <v>22.6928</v>
       </c>
       <c r="G109" t="n">
-        <v>1349.663121171563</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4012,18 +3683,15 @@
         <v>220.5447</v>
       </c>
       <c r="G110" t="n">
-        <v>1349.663121171563</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4045,18 +3713,15 @@
         <v>28.7561</v>
       </c>
       <c r="G111" t="n">
-        <v>1378.419221171563</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4078,18 +3743,15 @@
         <v>117.4951</v>
       </c>
       <c r="G112" t="n">
-        <v>1378.419221171563</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4111,18 +3773,15 @@
         <v>0.5</v>
       </c>
       <c r="G113" t="n">
-        <v>1378.419221171563</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4144,18 +3803,15 @@
         <v>61.6532</v>
       </c>
       <c r="G114" t="n">
-        <v>1440.072421171563</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4177,18 +3833,15 @@
         <v>9.7265</v>
       </c>
       <c r="G115" t="n">
-        <v>1449.798921171563</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4210,18 +3863,15 @@
         <v>80</v>
       </c>
       <c r="G116" t="n">
-        <v>1369.798921171563</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4243,18 +3893,15 @@
         <v>2</v>
       </c>
       <c r="G117" t="n">
-        <v>1369.798921171563</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4276,18 +3923,15 @@
         <v>4.1588</v>
       </c>
       <c r="G118" t="n">
-        <v>1369.798921171563</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4309,18 +3953,15 @@
         <v>50</v>
       </c>
       <c r="G119" t="n">
-        <v>1319.798921171563</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4342,18 +3983,15 @@
         <v>420.7769</v>
       </c>
       <c r="G120" t="n">
-        <v>1740.575821171563</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4375,18 +4013,15 @@
         <v>58.3446</v>
       </c>
       <c r="G121" t="n">
-        <v>1740.575821171563</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4408,18 +4043,15 @@
         <v>26.5963</v>
       </c>
       <c r="G122" t="n">
-        <v>1713.979521171563</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4441,18 +4073,15 @@
         <v>7.0069</v>
       </c>
       <c r="G123" t="n">
-        <v>1713.979521171563</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4474,18 +4103,15 @@
         <v>99.12820000000001</v>
       </c>
       <c r="G124" t="n">
-        <v>1713.979521171563</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4507,18 +4133,15 @@
         <v>59.0527</v>
       </c>
       <c r="G125" t="n">
-        <v>1654.926821171563</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4540,18 +4163,15 @@
         <v>0.5</v>
       </c>
       <c r="G126" t="n">
-        <v>1654.926821171563</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4573,18 +4193,15 @@
         <v>24.0249</v>
       </c>
       <c r="G127" t="n">
-        <v>1630.901921171564</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4606,18 +4223,15 @@
         <v>9.3363</v>
       </c>
       <c r="G128" t="n">
-        <v>1640.238221171564</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4639,18 +4253,15 @@
         <v>8.329800000000001</v>
       </c>
       <c r="G129" t="n">
-        <v>1631.908421171564</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4672,18 +4283,15 @@
         <v>6.2276</v>
       </c>
       <c r="G130" t="n">
-        <v>1638.136021171563</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4705,18 +4313,15 @@
         <v>100</v>
       </c>
       <c r="G131" t="n">
-        <v>1738.136021171563</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4738,18 +4343,15 @@
         <v>11.5165</v>
       </c>
       <c r="G132" t="n">
-        <v>1738.136021171563</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4771,18 +4373,15 @@
         <v>2.0524</v>
       </c>
       <c r="G133" t="n">
-        <v>1736.083621171563</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4804,18 +4403,15 @@
         <v>4266.2232</v>
       </c>
       <c r="G134" t="n">
-        <v>-2530.139578828437</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4837,18 +4433,15 @@
         <v>958.298</v>
       </c>
       <c r="G135" t="n">
-        <v>-3488.437578828437</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4870,18 +4463,15 @@
         <v>66.0605012987013</v>
       </c>
       <c r="G136" t="n">
-        <v>-3422.377077529736</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4903,18 +4493,15 @@
         <v>272.8252</v>
       </c>
       <c r="G137" t="n">
-        <v>-3422.377077529736</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4936,18 +4523,15 @@
         <v>816.1673</v>
       </c>
       <c r="G138" t="n">
-        <v>-4238.544377529735</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4969,18 +4553,15 @@
         <v>165.7057</v>
       </c>
       <c r="G139" t="n">
-        <v>-4238.544377529735</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5002,18 +4583,15 @@
         <v>66.5365</v>
       </c>
       <c r="G140" t="n">
-        <v>-4172.007877529735</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5035,18 +4613,15 @@
         <v>35.5372</v>
       </c>
       <c r="G141" t="n">
-        <v>-4172.007877529735</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5068,18 +4643,15 @@
         <v>105.2966</v>
       </c>
       <c r="G142" t="n">
-        <v>-4277.304477529735</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5101,18 +4673,15 @@
         <v>7.6182</v>
       </c>
       <c r="G143" t="n">
-        <v>-4269.686277529735</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5134,18 +4703,15 @@
         <v>100</v>
       </c>
       <c r="G144" t="n">
-        <v>-4269.686277529735</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5167,18 +4733,15 @@
         <v>28.131</v>
       </c>
       <c r="G145" t="n">
-        <v>-4269.686277529735</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5200,18 +4763,15 @@
         <v>133.0125</v>
       </c>
       <c r="G146" t="n">
-        <v>-4402.698777529735</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5233,18 +4793,15 @@
         <v>2155.1</v>
       </c>
       <c r="G147" t="n">
-        <v>-6557.798777529735</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5266,18 +4823,15 @@
         <v>3121.1202</v>
       </c>
       <c r="G148" t="n">
-        <v>-9678.918977529735</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5299,18 +4853,15 @@
         <v>1252.8524</v>
       </c>
       <c r="G149" t="n">
-        <v>-9678.918977529735</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5332,18 +4883,15 @@
         <v>10013.0436</v>
       </c>
       <c r="G150" t="n">
-        <v>-19691.96257752974</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5365,18 +4913,15 @@
         <v>4513.0777</v>
       </c>
       <c r="G151" t="n">
-        <v>-15178.88487752974</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5398,18 +4943,15 @@
         <v>501.404</v>
       </c>
       <c r="G152" t="n">
-        <v>-14677.48087752974</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5431,18 +4973,15 @@
         <v>408.6161</v>
       </c>
       <c r="G153" t="n">
-        <v>-15086.09697752973</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5464,18 +5003,15 @@
         <v>152.1439</v>
       </c>
       <c r="G154" t="n">
-        <v>-14933.95307752974</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5497,18 +5033,15 @@
         <v>144.45</v>
       </c>
       <c r="G155" t="n">
-        <v>-15078.40307752974</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5530,18 +5063,15 @@
         <v>0.6</v>
       </c>
       <c r="G156" t="n">
-        <v>-15077.80307752974</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5563,18 +5093,15 @@
         <v>1146.6825</v>
       </c>
       <c r="G157" t="n">
-        <v>-13931.12057752973</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5596,18 +5123,15 @@
         <v>507.368</v>
       </c>
       <c r="G158" t="n">
-        <v>-14438.48857752974</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5629,18 +5153,15 @@
         <v>657.3864</v>
       </c>
       <c r="G159" t="n">
-        <v>-15095.87497752973</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5662,18 +5183,19 @@
         <v>119.1387</v>
       </c>
       <c r="G160" t="n">
-        <v>-14976.73627752974</v>
+        <v>1</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
+        <v>6085</v>
+      </c>
+      <c r="I160" t="n">
+        <v>6085</v>
+      </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5695,18 +5217,23 @@
         <v>80.19410000000001</v>
       </c>
       <c r="G161" t="n">
-        <v>-14896.54217752973</v>
+        <v>1</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+        <v>6110</v>
+      </c>
+      <c r="I161" t="n">
+        <v>6085</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5728,18 +5255,21 @@
         <v>15</v>
       </c>
       <c r="G162" t="n">
-        <v>-14911.54217752973</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="n">
+        <v>6085</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5761,18 +5291,15 @@
         <v>0.5738</v>
       </c>
       <c r="G163" t="n">
-        <v>-14912.11597752973</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5794,18 +5321,15 @@
         <v>317.2755</v>
       </c>
       <c r="G164" t="n">
-        <v>-14594.84047752973</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5827,18 +5351,15 @@
         <v>170.8352</v>
       </c>
       <c r="G165" t="n">
-        <v>-14424.00527752974</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5860,18 +5381,15 @@
         <v>78.41500000000001</v>
       </c>
       <c r="G166" t="n">
-        <v>-14424.00527752974</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5893,18 +5411,19 @@
         <v>291.9587</v>
       </c>
       <c r="G167" t="n">
-        <v>-14132.04657752974</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>6095</v>
+      </c>
+      <c r="I167" t="n">
+        <v>6095</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5926,18 +5445,23 @@
         <v>194.6947</v>
       </c>
       <c r="G168" t="n">
-        <v>-14326.74127752974</v>
+        <v>1</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+        <v>6115</v>
+      </c>
+      <c r="I168" t="n">
+        <v>6095</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5959,18 +5483,23 @@
         <v>17.3917</v>
       </c>
       <c r="G169" t="n">
-        <v>-14326.74127752974</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+        <v>6110</v>
+      </c>
+      <c r="I169" t="n">
+        <v>6095</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5992,18 +5521,19 @@
         <v>136.45</v>
       </c>
       <c r="G170" t="n">
-        <v>-14190.29127752974</v>
+        <v>1</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>6110</v>
+      </c>
+      <c r="I170" t="n">
+        <v>6110</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6025,18 +5555,21 @@
         <v>38.4164</v>
       </c>
       <c r="G171" t="n">
-        <v>-14151.87487752974</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="n">
+        <v>6110</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6058,18 +5591,21 @@
         <v>102.5433</v>
       </c>
       <c r="G172" t="n">
-        <v>-14049.33157752974</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="n">
+        <v>6110</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6091,18 +5627,15 @@
         <v>17.8029</v>
       </c>
       <c r="G173" t="n">
-        <v>-14049.33157752974</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6124,18 +5657,15 @@
         <v>144</v>
       </c>
       <c r="G174" t="n">
-        <v>-14049.33157752974</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>1</v>
+      </c>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6157,18 +5687,15 @@
         <v>100</v>
       </c>
       <c r="G175" t="n">
-        <v>-14149.33157752974</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6190,18 +5717,15 @@
         <v>391.22</v>
       </c>
       <c r="G176" t="n">
-        <v>-13758.11157752974</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6223,18 +5747,15 @@
         <v>89.9181</v>
       </c>
       <c r="G177" t="n">
-        <v>-13668.19347752974</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6256,18 +5777,15 @@
         <v>11.1007</v>
       </c>
       <c r="G178" t="n">
-        <v>-13679.29417752974</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6289,18 +5807,15 @@
         <v>78.9885</v>
       </c>
       <c r="G179" t="n">
-        <v>-13758.28267752974</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6322,18 +5837,15 @@
         <v>25</v>
       </c>
       <c r="G180" t="n">
-        <v>-13783.28267752974</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6355,18 +5867,15 @@
         <v>95.9118</v>
       </c>
       <c r="G181" t="n">
-        <v>-13687.37087752974</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6388,18 +5897,15 @@
         <v>46.5674</v>
       </c>
       <c r="G182" t="n">
-        <v>-13687.37087752974</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6421,18 +5927,15 @@
         <v>16</v>
       </c>
       <c r="G183" t="n">
-        <v>-13687.37087752974</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6454,18 +5957,15 @@
         <v>0.1</v>
       </c>
       <c r="G184" t="n">
-        <v>-13687.47087752974</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6487,18 +5987,15 @@
         <v>12.6113</v>
       </c>
       <c r="G185" t="n">
-        <v>-13674.85957752974</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6520,18 +6017,15 @@
         <v>131.3887</v>
       </c>
       <c r="G186" t="n">
-        <v>-13674.85957752974</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6553,18 +6047,15 @@
         <v>27.9414</v>
       </c>
       <c r="G187" t="n">
-        <v>-13646.91817752974</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6586,18 +6077,15 @@
         <v>25</v>
       </c>
       <c r="G188" t="n">
-        <v>-13671.91817752974</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6619,18 +6107,15 @@
         <v>5.3232</v>
       </c>
       <c r="G189" t="n">
-        <v>-13677.24137752974</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -6652,18 +6137,15 @@
         <v>9.7629</v>
       </c>
       <c r="G190" t="n">
-        <v>-13667.47847752974</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -6685,18 +6167,15 @@
         <v>19.224</v>
       </c>
       <c r="G191" t="n">
-        <v>-13667.47847752974</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -6718,18 +6197,15 @@
         <v>19.2721</v>
       </c>
       <c r="G192" t="n">
-        <v>-13667.47847752974</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -6751,18 +6227,15 @@
         <v>366.3725</v>
       </c>
       <c r="G193" t="n">
-        <v>-14033.85097752974</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -6784,18 +6257,15 @@
         <v>109.3818</v>
       </c>
       <c r="G194" t="n">
-        <v>-14033.85097752974</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -6817,18 +6287,15 @@
         <v>36.4813</v>
       </c>
       <c r="G195" t="n">
-        <v>-13997.36967752974</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -6850,18 +6317,15 @@
         <v>144</v>
       </c>
       <c r="G196" t="n">
-        <v>-14141.36967752974</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -6883,18 +6347,15 @@
         <v>1.3</v>
       </c>
       <c r="G197" t="n">
-        <v>-14141.36967752974</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -6916,18 +6377,15 @@
         <v>325.81</v>
       </c>
       <c r="G198" t="n">
-        <v>-14141.36967752974</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -6949,18 +6407,15 @@
         <v>10.6691</v>
       </c>
       <c r="G199" t="n">
-        <v>-14141.36967752974</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -6982,18 +6437,15 @@
         <v>57.3161</v>
       </c>
       <c r="G200" t="n">
-        <v>-14141.36967752974</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7015,18 +6467,15 @@
         <v>7.5722</v>
       </c>
       <c r="G201" t="n">
-        <v>-14141.36967752974</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7048,18 +6497,15 @@
         <v>144</v>
       </c>
       <c r="G202" t="n">
-        <v>-14285.36967752974</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7081,18 +6527,15 @@
         <v>295.3659</v>
       </c>
       <c r="G203" t="n">
-        <v>-14580.73557752974</v>
-      </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7114,18 +6557,15 @@
         <v>347.9939</v>
       </c>
       <c r="G204" t="n">
-        <v>-14232.74167752974</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7147,18 +6587,15 @@
         <v>517.1668</v>
       </c>
       <c r="G205" t="n">
-        <v>-14749.90847752974</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7180,18 +6617,15 @@
         <v>105.4</v>
       </c>
       <c r="G206" t="n">
-        <v>-14644.50847752974</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7213,18 +6647,15 @@
         <v>64.4819</v>
       </c>
       <c r="G207" t="n">
-        <v>-14580.02657752974</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7246,18 +6677,15 @@
         <v>25</v>
       </c>
       <c r="G208" t="n">
-        <v>-14605.02657752974</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7279,18 +6707,15 @@
         <v>163.8001638001638</v>
       </c>
       <c r="G209" t="n">
-        <v>-14441.22641372957</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7312,18 +6737,15 @@
         <v>144</v>
       </c>
       <c r="G210" t="n">
-        <v>-14297.22641372957</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7345,18 +6767,15 @@
         <v>50</v>
       </c>
       <c r="G211" t="n">
-        <v>-14297.22641372957</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7378,18 +6797,15 @@
         <v>461.8474</v>
       </c>
       <c r="G212" t="n">
-        <v>-13835.37901372957</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7411,18 +6827,15 @@
         <v>16.059</v>
       </c>
       <c r="G213" t="n">
-        <v>-13819.32001372957</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7444,18 +6857,15 @@
         <v>3.033</v>
       </c>
       <c r="G214" t="n">
-        <v>-13822.35301372957</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -7477,18 +6887,15 @@
         <v>0.6</v>
       </c>
       <c r="G215" t="n">
-        <v>-13821.75301372957</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -7510,18 +6917,15 @@
         <v>0.1495</v>
       </c>
       <c r="G216" t="n">
-        <v>-13821.90251372957</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -7543,18 +6947,15 @@
         <v>0.607</v>
       </c>
       <c r="G217" t="n">
-        <v>-13822.50951372957</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -7576,18 +6977,15 @@
         <v>49.393</v>
       </c>
       <c r="G218" t="n">
-        <v>-13822.50951372957</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -7609,18 +7007,15 @@
         <v>1798.824</v>
       </c>
       <c r="G219" t="n">
-        <v>-13822.50951372957</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -7642,18 +7037,15 @@
         <v>501.3972</v>
       </c>
       <c r="G220" t="n">
-        <v>-13321.11231372957</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -7675,18 +7067,15 @@
         <v>3.6804</v>
       </c>
       <c r="G221" t="n">
-        <v>-13324.79271372957</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -7708,18 +7097,15 @@
         <v>100</v>
       </c>
       <c r="G222" t="n">
-        <v>-13324.79271372957</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -7741,18 +7127,15 @@
         <v>57.7951</v>
       </c>
       <c r="G223" t="n">
-        <v>-13266.99761372957</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -7774,18 +7157,15 @@
         <v>420.0566</v>
       </c>
       <c r="G224" t="n">
-        <v>-13687.05421372957</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -7807,18 +7187,15 @@
         <v>636</v>
       </c>
       <c r="G225" t="n">
-        <v>-13051.05421372957</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -7840,18 +7217,15 @@
         <v>100</v>
       </c>
       <c r="G226" t="n">
-        <v>-13151.05421372957</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -7873,18 +7247,15 @@
         <v>50</v>
       </c>
       <c r="G227" t="n">
-        <v>-13201.05421372957</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -7906,18 +7277,15 @@
         <v>15.0045</v>
       </c>
       <c r="G228" t="n">
-        <v>-13186.04971372957</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -7939,18 +7307,15 @@
         <v>144.5311</v>
       </c>
       <c r="G229" t="n">
-        <v>-13186.04971372957</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -7972,18 +7337,15 @@
         <v>0.0009</v>
       </c>
       <c r="G230" t="n">
-        <v>-13186.04971372957</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8005,18 +7367,15 @@
         <v>1.1</v>
       </c>
       <c r="G231" t="n">
-        <v>-13186.04971372957</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8038,18 +7397,15 @@
         <v>78</v>
       </c>
       <c r="G232" t="n">
-        <v>-13108.04971372957</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8071,18 +7427,15 @@
         <v>88.62</v>
       </c>
       <c r="G233" t="n">
-        <v>-13196.66971372957</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8104,18 +7457,15 @@
         <v>758.0946</v>
       </c>
       <c r="G234" t="n">
-        <v>-13954.76431372957</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8137,18 +7487,15 @@
         <v>99.1773</v>
       </c>
       <c r="G235" t="n">
-        <v>-13954.76431372957</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -8170,18 +7517,15 @@
         <v>9.9</v>
       </c>
       <c r="G236" t="n">
-        <v>-13964.66431372957</v>
-      </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H236" t="inlineStr"/>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="n">
-        <v>1</v>
-      </c>
-      <c r="M236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -8203,18 +7547,15 @@
         <v>539.658</v>
       </c>
       <c r="G237" t="n">
-        <v>-14504.32231372957</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H237" t="inlineStr"/>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8236,18 +7577,15 @@
         <v>177.5082</v>
       </c>
       <c r="G238" t="n">
-        <v>-14326.81411372957</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H238" t="inlineStr"/>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="n">
-        <v>1</v>
-      </c>
-      <c r="M238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>1</v>
+      </c>
+      <c r="L238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -8269,18 +7607,15 @@
         <v>128.4</v>
       </c>
       <c r="G239" t="n">
-        <v>-14455.21411372957</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="n">
-        <v>1</v>
-      </c>
-      <c r="M239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>1</v>
+      </c>
+      <c r="L239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -8302,18 +7637,15 @@
         <v>138.5008</v>
       </c>
       <c r="G240" t="n">
-        <v>-14316.71331372957</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
-      <c r="L240" t="n">
-        <v>1</v>
-      </c>
-      <c r="M240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>1</v>
+      </c>
+      <c r="L240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -8335,18 +7667,15 @@
         <v>17.0062</v>
       </c>
       <c r="G241" t="n">
-        <v>-14316.71331372957</v>
-      </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="n">
-        <v>1</v>
-      </c>
-      <c r="M241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>1</v>
+      </c>
+      <c r="L241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -8368,18 +7697,15 @@
         <v>6.2319</v>
       </c>
       <c r="G242" t="n">
-        <v>-14310.48141372957</v>
-      </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
-      <c r="L242" t="n">
-        <v>1</v>
-      </c>
-      <c r="M242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -8401,18 +7727,15 @@
         <v>0.5182186234817814</v>
       </c>
       <c r="G243" t="n">
-        <v>-14309.96319510609</v>
-      </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H243" t="inlineStr"/>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="n">
-        <v>1</v>
-      </c>
-      <c r="M243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>1</v>
+      </c>
+      <c r="L243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -8434,18 +7757,15 @@
         <v>106.8</v>
       </c>
       <c r="G244" t="n">
-        <v>-14416.76319510609</v>
-      </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H244" t="inlineStr"/>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="n">
-        <v>1</v>
-      </c>
-      <c r="M244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>1</v>
+      </c>
+      <c r="L244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -8467,18 +7787,15 @@
         <v>228.3783</v>
       </c>
       <c r="G245" t="n">
-        <v>-14188.38489510609</v>
-      </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H245" t="inlineStr"/>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="n">
-        <v>1</v>
-      </c>
-      <c r="M245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -8500,18 +7817,15 @@
         <v>38.4365</v>
       </c>
       <c r="G246" t="n">
-        <v>-14226.82139510609</v>
-      </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="n">
-        <v>1</v>
-      </c>
-      <c r="M246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>1</v>
+      </c>
+      <c r="L246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -8533,18 +7847,15 @@
         <v>100</v>
       </c>
       <c r="G247" t="n">
-        <v>-14126.82139510609</v>
-      </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>1</v>
+      </c>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -8566,18 +7877,15 @@
         <v>89.9418</v>
       </c>
       <c r="G248" t="n">
-        <v>-14216.76319510609</v>
-      </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H248" t="inlineStr"/>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="n">
-        <v>1</v>
-      </c>
-      <c r="M248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>1</v>
+      </c>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -8599,18 +7907,15 @@
         <v>69.8165</v>
       </c>
       <c r="G249" t="n">
-        <v>-14286.57969510609</v>
-      </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="n">
-        <v>1</v>
-      </c>
-      <c r="M249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>1</v>
+      </c>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -8632,18 +7937,15 @@
         <v>1.2011</v>
       </c>
       <c r="G250" t="n">
-        <v>-14286.57969510609</v>
-      </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="n">
-        <v>1</v>
-      </c>
-      <c r="M250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>1</v>
+      </c>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -8665,18 +7967,15 @@
         <v>0.2</v>
       </c>
       <c r="G251" t="n">
-        <v>-14286.57969510609</v>
-      </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H251" t="inlineStr"/>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="n">
-        <v>1</v>
-      </c>
-      <c r="M251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>1</v>
+      </c>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -8698,18 +7997,15 @@
         <v>100.0406</v>
       </c>
       <c r="G252" t="n">
-        <v>-14386.62029510609</v>
-      </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H252" t="inlineStr"/>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="n">
-        <v>1</v>
-      </c>
-      <c r="M252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>1</v>
+      </c>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -8731,18 +8027,15 @@
         <v>0.9992</v>
       </c>
       <c r="G253" t="n">
-        <v>-14387.61949510609</v>
-      </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H253" t="inlineStr"/>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
-      <c r="L253" t="n">
-        <v>1</v>
-      </c>
-      <c r="M253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>1</v>
+      </c>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -8764,18 +8057,15 @@
         <v>0.2008</v>
       </c>
       <c r="G254" t="n">
-        <v>-14387.61949510609</v>
-      </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="n">
-        <v>1</v>
-      </c>
-      <c r="M254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>1</v>
+      </c>
+      <c r="L254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -8797,18 +8087,15 @@
         <v>6.476</v>
       </c>
       <c r="G255" t="n">
-        <v>-14394.09549510609</v>
-      </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="n">
-        <v>1</v>
-      </c>
-      <c r="M255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -8830,18 +8117,15 @@
         <v>3.1511</v>
       </c>
       <c r="G256" t="n">
-        <v>-14397.24659510609</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H256" t="inlineStr"/>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="n">
-        <v>1</v>
-      </c>
-      <c r="M256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>1</v>
+      </c>
+      <c r="L256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -8863,18 +8147,15 @@
         <v>69.07089999999999</v>
       </c>
       <c r="G257" t="n">
-        <v>-14466.31749510609</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
-      <c r="L257" t="n">
-        <v>1</v>
-      </c>
-      <c r="M257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>1</v>
+      </c>
+      <c r="L257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -8896,18 +8177,15 @@
         <v>1209.4128</v>
       </c>
       <c r="G258" t="n">
-        <v>-15675.73029510609</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H258" t="inlineStr"/>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
-      <c r="L258" t="n">
-        <v>1</v>
-      </c>
-      <c r="M258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>1</v>
+      </c>
+      <c r="L258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -8929,18 +8207,15 @@
         <v>154.5712</v>
       </c>
       <c r="G259" t="n">
-        <v>-15521.15909510609</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
-      <c r="L259" t="n">
-        <v>1</v>
-      </c>
-      <c r="M259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>1</v>
+      </c>
+      <c r="L259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -8962,18 +8237,15 @@
         <v>60.0743</v>
       </c>
       <c r="G260" t="n">
-        <v>-15521.15909510609</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H260" t="inlineStr"/>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="n">
-        <v>1</v>
-      </c>
-      <c r="M260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -8995,22 +8267,15 @@
         <v>0.1</v>
       </c>
       <c r="G261" t="n">
-        <v>-15521.05909510609</v>
-      </c>
-      <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>6095</v>
-      </c>
-      <c r="J261" t="n">
-        <v>6095</v>
-      </c>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="n">
-        <v>1</v>
-      </c>
-      <c r="M261" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -9032,24 +8297,15 @@
         <v>172.534</v>
       </c>
       <c r="G262" t="n">
-        <v>-15693.59309510609</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H262" t="inlineStr"/>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>6095</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L262" t="n">
-        <v>1</v>
-      </c>
-      <c r="M262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -9071,24 +8327,15 @@
         <v>105</v>
       </c>
       <c r="G263" t="n">
-        <v>-15798.59309510609</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H263" t="inlineStr"/>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>6095</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L263" t="n">
-        <v>1</v>
-      </c>
-      <c r="M263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -9110,18 +8357,15 @@
         <v>30</v>
       </c>
       <c r="G264" t="n">
-        <v>-15768.59309510609</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H264" t="inlineStr"/>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="n">
-        <v>1</v>
-      </c>
-      <c r="M264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -9143,18 +8387,15 @@
         <v>30</v>
       </c>
       <c r="G265" t="n">
-        <v>-15798.59309510609</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H265" t="inlineStr"/>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="n">
-        <v>1</v>
-      </c>
-      <c r="M265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -9176,18 +8417,15 @@
         <v>6.392</v>
       </c>
       <c r="G266" t="n">
-        <v>-15792.20109510609</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="n">
-        <v>1</v>
-      </c>
-      <c r="M266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -9209,18 +8447,15 @@
         <v>289.5046</v>
       </c>
       <c r="G267" t="n">
-        <v>-15502.69649510609</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H267" t="inlineStr"/>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="n">
-        <v>1</v>
-      </c>
-      <c r="M267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -9242,18 +8477,15 @@
         <v>81.0766</v>
       </c>
       <c r="G268" t="n">
-        <v>-15583.77309510609</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H268" t="inlineStr"/>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
-      <c r="M268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -9275,18 +8507,15 @@
         <v>39.91775244299674</v>
       </c>
       <c r="G269" t="n">
-        <v>-15543.8553426631</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H269" t="inlineStr"/>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="n">
-        <v>1</v>
-      </c>
-      <c r="M269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>1</v>
+      </c>
+      <c r="L269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -9308,18 +8537,15 @@
         <v>4.1193</v>
       </c>
       <c r="G270" t="n">
-        <v>-15547.9746426631</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H270" t="inlineStr"/>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="n">
-        <v>1</v>
-      </c>
-      <c r="M270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>1</v>
+      </c>
+      <c r="L270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -9341,18 +8567,15 @@
         <v>3.4</v>
       </c>
       <c r="G271" t="n">
-        <v>-15547.9746426631</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="n">
-        <v>1</v>
-      </c>
-      <c r="M271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>1</v>
+      </c>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -9374,18 +8597,15 @@
         <v>23.8268</v>
       </c>
       <c r="G272" t="n">
-        <v>-15571.8014426631</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H272" t="inlineStr"/>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="n">
-        <v>1</v>
-      </c>
-      <c r="M272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>1</v>
+      </c>
+      <c r="L272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -9407,18 +8627,15 @@
         <v>462.1546</v>
       </c>
       <c r="G273" t="n">
-        <v>-15109.6468426631</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="n">
-        <v>1</v>
-      </c>
-      <c r="M273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>1</v>
+      </c>
+      <c r="L273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -9440,18 +8657,15 @@
         <v>58.8411</v>
       </c>
       <c r="G274" t="n">
-        <v>-15168.4879426631</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H274" t="inlineStr"/>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="n">
-        <v>1</v>
-      </c>
-      <c r="M274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>1</v>
+      </c>
+      <c r="L274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -9473,18 +8687,15 @@
         <v>120</v>
       </c>
       <c r="G275" t="n">
-        <v>-15288.4879426631</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="n">
-        <v>1</v>
-      </c>
-      <c r="M275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>1</v>
+      </c>
+      <c r="L275" t="inlineStr"/>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -9506,18 +8717,15 @@
         <v>48.89</v>
       </c>
       <c r="G276" t="n">
-        <v>-15239.5979426631</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H276" t="inlineStr"/>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="n">
-        <v>1</v>
-      </c>
-      <c r="M276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>1</v>
+      </c>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -9539,18 +8747,15 @@
         <v>212</v>
       </c>
       <c r="G277" t="n">
-        <v>-15239.5979426631</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="n">
-        <v>1</v>
-      </c>
-      <c r="M277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>1</v>
+      </c>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -9572,18 +8777,15 @@
         <v>125.6</v>
       </c>
       <c r="G278" t="n">
-        <v>-15365.1979426631</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H278" t="inlineStr"/>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="n">
-        <v>1</v>
-      </c>
-      <c r="M278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -9605,18 +8807,15 @@
         <v>2.4</v>
       </c>
       <c r="G279" t="n">
-        <v>-15362.7979426631</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H279" t="inlineStr"/>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -9638,18 +8837,15 @@
         <v>200</v>
       </c>
       <c r="G280" t="n">
-        <v>-15162.7979426631</v>
-      </c>
-      <c r="H280" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
+      <c r="K280" t="n">
+        <v>1</v>
+      </c>
+      <c r="L280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -9671,18 +8867,15 @@
         <v>578.175</v>
       </c>
       <c r="G281" t="n">
-        <v>-14584.6229426631</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H281" t="inlineStr"/>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
+      <c r="K281" t="n">
+        <v>1</v>
+      </c>
+      <c r="L281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -9704,18 +8897,15 @@
         <v>1005.83</v>
       </c>
       <c r="G282" t="n">
-        <v>-14584.6229426631</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -9737,18 +8927,15 @@
         <v>3.8203</v>
       </c>
       <c r="G283" t="n">
-        <v>-14584.6229426631</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -9770,18 +8957,15 @@
         <v>12.2683</v>
       </c>
       <c r="G284" t="n">
-        <v>-14596.8912426631</v>
-      </c>
-      <c r="H284" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
+      <c r="K284" t="n">
+        <v>1</v>
+      </c>
+      <c r="L284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -9803,18 +8987,15 @@
         <v>333.5413</v>
       </c>
       <c r="G285" t="n">
-        <v>-14596.8912426631</v>
-      </c>
-      <c r="H285" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H285" t="inlineStr"/>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
+      <c r="K285" t="n">
+        <v>1</v>
+      </c>
+      <c r="L285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -9836,18 +9017,15 @@
         <v>0.3956</v>
       </c>
       <c r="G286" t="n">
-        <v>-14596.8912426631</v>
-      </c>
-      <c r="H286" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
-      <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -9869,18 +9047,15 @@
         <v>72.459</v>
       </c>
       <c r="G287" t="n">
-        <v>-14596.8912426631</v>
-      </c>
-      <c r="H287" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H287" t="inlineStr"/>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
-      <c r="L287" t="n">
-        <v>1</v>
-      </c>
-      <c r="M287" t="inlineStr"/>
+      <c r="K287" t="n">
+        <v>1</v>
+      </c>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -9902,18 +9077,15 @@
         <v>190.8248</v>
       </c>
       <c r="G288" t="n">
-        <v>-14787.7160426631</v>
-      </c>
-      <c r="H288" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
-      <c r="L288" t="n">
-        <v>1</v>
-      </c>
-      <c r="M288" t="inlineStr"/>
+      <c r="K288" t="n">
+        <v>1</v>
+      </c>
+      <c r="L288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -9935,18 +9107,15 @@
         <v>48.8887</v>
       </c>
       <c r="G289" t="n">
-        <v>-14738.8273426631</v>
-      </c>
-      <c r="H289" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
-      <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+      <c r="K289" t="n">
+        <v>1</v>
+      </c>
+      <c r="L289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -9968,18 +9137,15 @@
         <v>446.6012</v>
       </c>
       <c r="G290" t="n">
-        <v>-14738.8273426631</v>
-      </c>
-      <c r="H290" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H290" t="inlineStr"/>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
-      <c r="L290" t="n">
-        <v>1</v>
-      </c>
-      <c r="M290" t="inlineStr"/>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -10001,18 +9167,15 @@
         <v>23.3784</v>
       </c>
       <c r="G291" t="n">
-        <v>-14762.2057426631</v>
-      </c>
-      <c r="H291" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
-      <c r="L291" t="n">
-        <v>1</v>
-      </c>
-      <c r="M291" t="inlineStr"/>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -10034,18 +9197,15 @@
         <v>203</v>
       </c>
       <c r="G292" t="n">
-        <v>-14762.2057426631</v>
-      </c>
-      <c r="H292" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
-      <c r="L292" t="n">
-        <v>1</v>
-      </c>
-      <c r="M292" t="inlineStr"/>
+      <c r="K292" t="n">
+        <v>1</v>
+      </c>
+      <c r="L292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -10067,18 +9227,15 @@
         <v>30.3863</v>
       </c>
       <c r="G293" t="n">
-        <v>-14762.2057426631</v>
-      </c>
-      <c r="H293" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H293" t="inlineStr"/>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
-      <c r="L293" t="n">
-        <v>1</v>
-      </c>
-      <c r="M293" t="inlineStr"/>
+      <c r="K293" t="n">
+        <v>1</v>
+      </c>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -10100,18 +9257,15 @@
         <v>579.8988000000001</v>
       </c>
       <c r="G294" t="n">
-        <v>-15342.1045426631</v>
-      </c>
-      <c r="H294" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H294" t="inlineStr"/>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
-      <c r="L294" t="n">
-        <v>1</v>
-      </c>
-      <c r="M294" t="inlineStr"/>
+      <c r="K294" t="n">
+        <v>1</v>
+      </c>
+      <c r="L294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -10133,18 +9287,15 @@
         <v>22.7345</v>
       </c>
       <c r="G295" t="n">
-        <v>-15342.1045426631</v>
-      </c>
-      <c r="H295" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
-      <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+      <c r="K295" t="n">
+        <v>1</v>
+      </c>
+      <c r="L295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10166,18 +9317,15 @@
         <v>9.4529</v>
       </c>
       <c r="G296" t="n">
-        <v>-15351.5574426631</v>
-      </c>
-      <c r="H296" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H296" t="inlineStr"/>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
-      <c r="L296" t="n">
-        <v>1</v>
-      </c>
-      <c r="M296" t="inlineStr"/>
+      <c r="K296" t="n">
+        <v>1</v>
+      </c>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -10199,18 +9347,15 @@
         <v>9.460599999999999</v>
       </c>
       <c r="G297" t="n">
-        <v>-15361.0180426631</v>
-      </c>
-      <c r="H297" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H297" t="inlineStr"/>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
-      <c r="L297" t="n">
-        <v>1</v>
-      </c>
-      <c r="M297" t="inlineStr"/>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -10232,18 +9377,15 @@
         <v>4.1874</v>
       </c>
       <c r="G298" t="n">
-        <v>-15361.0180426631</v>
-      </c>
-      <c r="H298" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H298" t="inlineStr"/>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
-      <c r="L298" t="n">
-        <v>1</v>
-      </c>
-      <c r="M298" t="inlineStr"/>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -10265,18 +9407,15 @@
         <v>16.6549</v>
       </c>
       <c r="G299" t="n">
-        <v>-15361.0180426631</v>
-      </c>
-      <c r="H299" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
-      <c r="L299" t="n">
-        <v>1</v>
-      </c>
-      <c r="M299" t="inlineStr"/>
+      <c r="K299" t="n">
+        <v>1</v>
+      </c>
+      <c r="L299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -10298,18 +9437,15 @@
         <v>9.468299999999999</v>
       </c>
       <c r="G300" t="n">
-        <v>-15370.4863426631</v>
-      </c>
-      <c r="H300" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H300" t="inlineStr"/>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
-      <c r="L300" t="n">
-        <v>1</v>
-      </c>
-      <c r="M300" t="inlineStr"/>
+      <c r="K300" t="n">
+        <v>1</v>
+      </c>
+      <c r="L300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -10331,18 +9467,15 @@
         <v>9.468299999999999</v>
       </c>
       <c r="G301" t="n">
-        <v>-15370.4863426631</v>
-      </c>
-      <c r="H301" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H301" t="inlineStr"/>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
-      <c r="L301" t="n">
-        <v>1</v>
-      </c>
-      <c r="M301" t="inlineStr"/>
+      <c r="K301" t="n">
+        <v>1</v>
+      </c>
+      <c r="L301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -10364,18 +9497,15 @@
         <v>9.468299999999999</v>
       </c>
       <c r="G302" t="n">
-        <v>-15370.4863426631</v>
-      </c>
-      <c r="H302" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
-      <c r="L302" t="n">
-        <v>1</v>
-      </c>
-      <c r="M302" t="inlineStr"/>
+      <c r="K302" t="n">
+        <v>1</v>
+      </c>
+      <c r="L302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -10397,18 +9527,15 @@
         <v>9.476100000000001</v>
       </c>
       <c r="G303" t="n">
-        <v>-15379.9624426631</v>
-      </c>
-      <c r="H303" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
-      <c r="L303" t="n">
-        <v>1</v>
-      </c>
-      <c r="M303" t="inlineStr"/>
+      <c r="K303" t="n">
+        <v>1</v>
+      </c>
+      <c r="L303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -10430,18 +9557,15 @@
         <v>16.6549</v>
       </c>
       <c r="G304" t="n">
-        <v>-15396.6173426631</v>
-      </c>
-      <c r="H304" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
-      <c r="L304" t="n">
-        <v>1</v>
-      </c>
-      <c r="M304" t="inlineStr"/>
+      <c r="K304" t="n">
+        <v>1</v>
+      </c>
+      <c r="L304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -10463,18 +9587,15 @@
         <v>9.4838</v>
       </c>
       <c r="G305" t="n">
-        <v>-15396.6173426631</v>
-      </c>
-      <c r="H305" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H305" t="inlineStr"/>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
-      <c r="L305" t="n">
-        <v>1</v>
-      </c>
-      <c r="M305" t="inlineStr"/>
+      <c r="K305" t="n">
+        <v>1</v>
+      </c>
+      <c r="L305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -10496,24 +9617,15 @@
         <v>102.1856</v>
       </c>
       <c r="G306" t="n">
-        <v>-15498.8029426631</v>
-      </c>
-      <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>6110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H306" t="inlineStr"/>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L306" t="n">
-        <v>1</v>
-      </c>
-      <c r="M306" t="inlineStr"/>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -10535,24 +9647,15 @@
         <v>96.13939999999999</v>
       </c>
       <c r="G307" t="n">
-        <v>-15402.6635426631</v>
-      </c>
-      <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>6100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr"/>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+      <c r="K307" t="n">
+        <v>1</v>
+      </c>
+      <c r="L307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -10574,24 +9677,15 @@
         <v>9.4916</v>
       </c>
       <c r="G308" t="n">
-        <v>-15402.6635426631</v>
-      </c>
-      <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L308" t="n">
-        <v>1</v>
-      </c>
-      <c r="M308" t="inlineStr"/>
+      <c r="K308" t="n">
+        <v>1</v>
+      </c>
+      <c r="L308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -10613,24 +9707,15 @@
         <v>1.2</v>
       </c>
       <c r="G309" t="n">
-        <v>-15402.6635426631</v>
-      </c>
-      <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L309" t="n">
-        <v>1</v>
-      </c>
-      <c r="M309" t="inlineStr"/>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -10652,24 +9737,15 @@
         <v>9.4916</v>
       </c>
       <c r="G310" t="n">
-        <v>-15402.6635426631</v>
-      </c>
-      <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L310" t="n">
-        <v>1</v>
-      </c>
-      <c r="M310" t="inlineStr"/>
+      <c r="K310" t="n">
+        <v>1</v>
+      </c>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -10691,24 +9767,15 @@
         <v>9.4994</v>
       </c>
       <c r="G311" t="n">
-        <v>-15412.1629426631</v>
-      </c>
-      <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H311" t="inlineStr"/>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L311" t="n">
-        <v>1</v>
-      </c>
-      <c r="M311" t="inlineStr"/>
+      <c r="K311" t="n">
+        <v>1</v>
+      </c>
+      <c r="L311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -10730,24 +9797,15 @@
         <v>81.95999999999999</v>
       </c>
       <c r="G312" t="n">
-        <v>-15412.1629426631</v>
-      </c>
-      <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>6100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H312" t="inlineStr"/>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L312" t="n">
-        <v>1</v>
-      </c>
-      <c r="M312" t="inlineStr"/>
+      <c r="K312" t="n">
+        <v>1</v>
+      </c>
+      <c r="L312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -10769,24 +9827,15 @@
         <v>5.2</v>
       </c>
       <c r="G313" t="n">
-        <v>-15406.9629426631</v>
-      </c>
-      <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>6100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H313" t="inlineStr"/>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L313" t="n">
-        <v>1</v>
-      </c>
-      <c r="M313" t="inlineStr"/>
+      <c r="K313" t="n">
+        <v>1</v>
+      </c>
+      <c r="L313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -10808,24 +9857,15 @@
         <v>9.4994</v>
       </c>
       <c r="G314" t="n">
-        <v>-15416.4623426631</v>
-      </c>
-      <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H314" t="inlineStr"/>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L314" t="n">
-        <v>1</v>
-      </c>
-      <c r="M314" t="inlineStr"/>
+      <c r="K314" t="n">
+        <v>1</v>
+      </c>
+      <c r="L314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -10847,24 +9887,15 @@
         <v>9.4994</v>
       </c>
       <c r="G315" t="n">
-        <v>-15416.4623426631</v>
-      </c>
-      <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>6100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr"/>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L315" t="n">
-        <v>1</v>
-      </c>
-      <c r="M315" t="inlineStr"/>
+      <c r="K315" t="n">
+        <v>1</v>
+      </c>
+      <c r="L315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -10886,24 +9917,15 @@
         <v>199</v>
       </c>
       <c r="G316" t="n">
-        <v>-15217.4623426631</v>
-      </c>
-      <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>6100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr"/>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L316" t="n">
-        <v>1</v>
-      </c>
-      <c r="M316" t="inlineStr"/>
+      <c r="K316" t="n">
+        <v>1</v>
+      </c>
+      <c r="L316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -10925,24 +9947,15 @@
         <v>9.4916</v>
       </c>
       <c r="G317" t="n">
-        <v>-15217.4623426631</v>
-      </c>
-      <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L317" t="n">
-        <v>1</v>
-      </c>
-      <c r="M317" t="inlineStr"/>
+      <c r="K317" t="n">
+        <v>1</v>
+      </c>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -10964,24 +9977,15 @@
         <v>9.4916</v>
       </c>
       <c r="G318" t="n">
-        <v>-15207.9707426631</v>
-      </c>
-      <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr"/>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L318" t="n">
-        <v>1</v>
-      </c>
-      <c r="M318" t="inlineStr"/>
+      <c r="K318" t="n">
+        <v>1</v>
+      </c>
+      <c r="L318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -11003,24 +10007,15 @@
         <v>9.476100000000001</v>
       </c>
       <c r="G319" t="n">
-        <v>-15198.4946426631</v>
-      </c>
-      <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>6110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L319" t="n">
-        <v>1</v>
-      </c>
-      <c r="M319" t="inlineStr"/>
+      <c r="K319" t="n">
+        <v>1</v>
+      </c>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -11042,24 +10037,15 @@
         <v>96.13160000000001</v>
       </c>
       <c r="G320" t="n">
-        <v>-15294.6262426631</v>
-      </c>
-      <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>6115</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H320" t="inlineStr"/>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L320" t="n">
-        <v>1</v>
-      </c>
-      <c r="M320" t="inlineStr"/>
+      <c r="K320" t="n">
+        <v>1</v>
+      </c>
+      <c r="L320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -11081,24 +10067,15 @@
         <v>9.4916</v>
       </c>
       <c r="G321" t="n">
-        <v>-15304.1178426631</v>
-      </c>
-      <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>6110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L321" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" t="inlineStr"/>
+      <c r="K321" t="n">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -11120,24 +10097,15 @@
         <v>0.6</v>
       </c>
       <c r="G322" t="n">
-        <v>-15304.1178426631</v>
-      </c>
-      <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L322" t="n">
-        <v>1</v>
-      </c>
-      <c r="M322" t="inlineStr"/>
+      <c r="K322" t="n">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -11159,24 +10127,15 @@
         <v>9.4916</v>
       </c>
       <c r="G323" t="n">
-        <v>-15304.1178426631</v>
-      </c>
-      <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H323" t="inlineStr"/>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L323" t="n">
-        <v>1</v>
-      </c>
-      <c r="M323" t="inlineStr"/>
+      <c r="K323" t="n">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -11198,24 +10157,15 @@
         <v>9.4916</v>
       </c>
       <c r="G324" t="n">
-        <v>-15304.1178426631</v>
-      </c>
-      <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L324" t="n">
-        <v>1</v>
-      </c>
-      <c r="M324" t="inlineStr"/>
+      <c r="K324" t="n">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr"/>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -11237,24 +10187,15 @@
         <v>26.8679</v>
       </c>
       <c r="G325" t="n">
-        <v>-15330.9857426631</v>
-      </c>
-      <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>6105</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr"/>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L325" t="n">
-        <v>1</v>
-      </c>
-      <c r="M325" t="inlineStr"/>
+      <c r="K325" t="n">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr"/>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -11276,24 +10217,15 @@
         <v>9.4994</v>
       </c>
       <c r="G326" t="n">
-        <v>-15330.9857426631</v>
-      </c>
-      <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>6100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr"/>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L326" t="n">
-        <v>1</v>
-      </c>
-      <c r="M326" t="inlineStr"/>
+      <c r="K326" t="n">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
